--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.207126479884875E-09</v>
+        <v>-9.207126479884875E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.949172181230573E-06</v>
+        <v>-3.949172181230573E-06</v>
       </c>
       <c r="C4">
-        <v>2.675190967865477E-08</v>
+        <v>-2.675190967865477E-08</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1871.334539450526</v>
+        <v>-1871.334539450526</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1041.216755895649</v>
+        <v>-1041.216755895649</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>559340.8812944479</v>
+        <v>-559340.8812944479</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9367671.597021785</v>
+        <v>-9367671.597021785</v>
       </c>
       <c r="C4">
-        <v>1625201.605371596</v>
+        <v>-1625201.605371596</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>270537467.28674</v>
+        <v>-270537467.28674</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104838616.2666857</v>
+        <v>-104838616.2666857</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>483507.1267379658</v>
+        <v>-483507.1267379658</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8336361.363219527</v>
+        <v>-8336361.363219527</v>
       </c>
       <c r="C4">
-        <v>1404861.659252636</v>
+        <v>-1404861.659252636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>266660663.4959664</v>
+        <v>-266660663.4959664</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107903680.0354381</v>
+        <v>-107903680.0354381</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.993646203070549E-07</v>
+        <v>-1.993646203070549E-07</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.219819169558133E-05</v>
+        <v>-7.219819169558133E-05</v>
       </c>
       <c r="C4">
-        <v>5.792669762086641E-07</v>
+        <v>-5.792669762086641E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4367.773167791256</v>
+        <v>-4367.773167791256</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2430.243245068812</v>
+        <v>-2430.243245068812</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.147865477623665E-06</v>
+        <v>-3.147865477623665E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0009721639725288414</v>
+        <v>-0.0009721639725288414</v>
       </c>
       <c r="C4">
-        <v>9.146329543959594E-06</v>
+        <v>-9.146329543959594E-06</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9499.738803183971</v>
+        <v>-9499.738803183971</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5285.682316676846</v>
+        <v>-5285.682316676846</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.827082216865558E-05</v>
+        <v>-3.827082216865558E-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01021966522846959</v>
+        <v>-0.01021966522846959</v>
       </c>
       <c r="C4">
-        <v>0.0001111983831459796</v>
+        <v>-0.0001111983831459796</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19587.30293089002</v>
+        <v>-19587.30293089002</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10898.39846794105</v>
+        <v>-10898.39846794105</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0003735642958475674</v>
+        <v>-0.0003735642958475674</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.08756017276618315</v>
+        <v>-0.08756017276618315</v>
       </c>
       <c r="C4">
-        <v>0.001085415555387195</v>
+        <v>-0.001085415555387195</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>38778.35273497323</v>
+        <v>-38778.35273497323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>21576.04300662768</v>
+        <v>-21576.04300662768</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.003026265363417934</v>
+        <v>-0.003026265363417934</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6317572194171536</v>
+        <v>-0.6317572194171536</v>
       </c>
       <c r="C4">
-        <v>0.008793012439078627</v>
+        <v>-0.008793012439078627</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>74320.63424553772</v>
+        <v>-74320.63424553772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41349.63471983165</v>
+        <v>-41349.63471983165</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02089511830815129</v>
+        <v>-0.02089511830815129</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.93744487265237</v>
+        <v>-3.93744487265237</v>
       </c>
       <c r="C4">
-        <v>0.06071213629200177</v>
+        <v>-0.06071213629200177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>138274.7486919603</v>
+        <v>-138274.7486919603</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>76920.21301010353</v>
+        <v>-76920.21301010353</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1256457289403408</v>
+        <v>-0.1256457289403408</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>21.63035693666707</v>
+        <v>-21.63035693666707</v>
       </c>
       <c r="C4">
-        <v>0.3650719037545758</v>
+        <v>-0.3650719037545758</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>249489.5330526543</v>
+        <v>-249489.5330526543</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>138727.0190655668</v>
+        <v>-138727.0190655668</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6697175204788549</v>
+        <v>-0.6697175204788549</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>106.4552450160593</v>
+        <v>-106.4552450160593</v>
       </c>
       <c r="C4">
-        <v>1.945908167679149</v>
+        <v>-1.945908167679149</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>435820.7931180467</v>
+        <v>-435820.7931180467</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>242049.5502695575</v>
+        <v>-242049.5502695575</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.210885681117295</v>
+        <v>-3.210885681117295</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>475.6678161200977</v>
+        <v>-475.6678161200977</v>
       </c>
       <c r="C4">
-        <v>9.329438877308636</v>
+        <v>-9.329438877308636</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>737006.3630146667</v>
+        <v>-737006.3630146667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>408092.2488653865</v>
+        <v>-408092.2488653865</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>14.01642551782736</v>
+        <v>-14.01642551782736</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1950.909940972719</v>
+        <v>-1950.909940972719</v>
       </c>
       <c r="C4">
-        <v>40.72564336872214</v>
+        <v>-40.72564336872214</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1209789.701378668</v>
+        <v>-1209789.701378668</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>664996.5638578119</v>
+        <v>-664996.5638578119</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>56.27888603562247</v>
+        <v>-56.27888603562247</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7410.852423759497</v>
+        <v>-7410.852423759497</v>
       </c>
       <c r="C4">
-        <v>163.521993461211</v>
+        <v>-163.521993461211</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1940392.277899685</v>
+        <v>-1940392.277899685</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1048699.757864777</v>
+        <v>-1048699.757864777</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>209.5900369230811</v>
+        <v>-209.5900369230811</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>26254.69408286976</v>
+        <v>-26254.69408286976</v>
       </c>
       <c r="C4">
-        <v>608.9775946449572</v>
+        <v>-608.9775946449572</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3079219.530361461</v>
+        <v>-3079219.530361461</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1603534.752685059</v>
+        <v>-1603534.752685059</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>728.4695443414295</v>
+        <v>-728.4695443414295</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>87087.21209705915</v>
+        <v>-87087.21209705915</v>
       </c>
       <c r="C4">
-        <v>2116.616025254862</v>
+        <v>-2116.616025254862</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4936943.733027384</v>
+        <v>-4936943.733027384</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2382430.639496836</v>
+        <v>-2382430.639496836</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2369.347880495729</v>
+        <v>-2369.347880495729</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>269856.0150732915</v>
+        <v>-269856.0150732915</v>
       </c>
       <c r="C4">
-        <v>6884.295619791073</v>
+        <v>-6884.295619791073</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8226928.605278482</v>
+        <v>-8226928.605278482</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3446505.182919225</v>
+        <v>-3446505.182919225</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7175.459138144647</v>
+        <v>-7175.459138144647</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>768257.9605577847</v>
+        <v>-768257.9605577847</v>
       </c>
       <c r="C4">
-        <v>20848.76700519962</v>
+        <v>-20848.76700519962</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14538712.49341675</v>
+        <v>-14538712.49341675</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4863769.776622354</v>
+        <v>-4863769.776622354</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>19778.8180862548</v>
+        <v>-19778.8180862548</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1913622.041627135</v>
+        <v>-1913622.041627135</v>
       </c>
       <c r="C4">
-        <v>57468.65280389283</v>
+        <v>-57468.65280389283</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26539937.15175186</v>
+        <v>-26539937.15175186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6706670.036031228</v>
+        <v>-6706670.036031228</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46723.41399330377</v>
+        <v>-46723.41399330377</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3758669.228356218</v>
+        <v>-3758669.228356218</v>
       </c>
       <c r="C4">
-        <v>135757.9429106404</v>
+        <v>-135757.9429106404</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>44906480.27323292</v>
+        <v>-44906480.27323292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9048367.162567494</v>
+        <v>-9048367.162567494</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>83627.43118378855</v>
+        <v>-83627.43118378855</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5190378.736548136</v>
+        <v>-5190378.736548136</v>
       </c>
       <c r="C4">
-        <v>242984.9845741016</v>
+        <v>-242984.9845741016</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>61508756.98198564</v>
+        <v>-61508756.98198564</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11957643.26165435</v>
+        <v>-11957643.26165435</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>94692.20023563194</v>
+        <v>-94692.20023563194</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5564127.231847872</v>
+        <v>-5564127.231847872</v>
       </c>
       <c r="C4">
-        <v>275134.3965471833</v>
+        <v>-275134.3965471833</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>70865219.38590416</v>
+        <v>-70865219.38590416</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>15492325.85019782</v>
+        <v>-15492325.85019782</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005245337528199612</v>
+        <v>-0.005245337528199612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002918523275539109</v>
+        <v>-0.002918523275539109</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>63191.55475301121</v>
+        <v>-63191.55475301121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5920848.461557361</v>
+        <v>-5920848.461557361</v>
       </c>
       <c r="C4">
-        <v>183607.2056683054</v>
+        <v>-183607.2056683054</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>80261199.94487421</v>
+        <v>-80261199.94487421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>19691908.99184442</v>
+        <v>-19691908.99184442</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>44909.05952650289</v>
+        <v>-44909.05952650289</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6505244.954594598</v>
+        <v>-6505244.954594598</v>
       </c>
       <c r="C4">
-        <v>130486.2170440563</v>
+        <v>-130486.2170440563</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>92863994.87418094</v>
+        <v>-92863994.87418094</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24570394.58664584</v>
+        <v>-24570394.58664584</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>72305.19519900011</v>
+        <v>-72305.19519900011</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7121089.579884261</v>
+        <v>-7121089.579884261</v>
       </c>
       <c r="C4">
-        <v>210087.4855457986</v>
+        <v>-210087.4855457986</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>107992155.6447516</v>
+        <v>-107992155.6447516</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>30110406.64153234</v>
+        <v>-30110406.64153234</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>112801.7177262162</v>
+        <v>-112801.7177262162</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7787562.969540309</v>
+        <v>-7787562.969540309</v>
       </c>
       <c r="C4">
-        <v>327752.7870179294</v>
+        <v>-327752.7870179294</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>124904380.5012466</v>
+        <v>-124904380.5012466</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36260352.76837938</v>
+        <v>-36260352.76837938</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>159455.4160762184</v>
+        <v>-159455.4160762184</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8296872.659789899</v>
+        <v>-8296872.659789899</v>
       </c>
       <c r="C4">
-        <v>463308.1665558536</v>
+        <v>-463308.1665558536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>141762533.6413952</v>
+        <v>-141762533.6413952</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>42937335.81492009</v>
+        <v>-42937335.81492009</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>220686.439526671</v>
+        <v>-220686.439526671</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8864561.89793992</v>
+        <v>-8864561.89793992</v>
       </c>
       <c r="C4">
-        <v>641218.9199767821</v>
+        <v>-641218.9199767821</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>160164847.5700569</v>
+        <v>-160164847.5700569</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>50039301.27374516</v>
+        <v>-50039301.27374516</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>264342.7164307792</v>
+        <v>-264342.7164307792</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8946910.480109677</v>
+        <v>-8946910.480109677</v>
       </c>
       <c r="C4">
-        <v>768065.0949692263</v>
+        <v>-768065.0949692263</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>175180187.3507006</v>
+        <v>-175180187.3507006</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>57470236.57685966</v>
+        <v>-57470236.57685966</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>296701.0497980423</v>
+        <v>-296701.0497980423</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8602746.110845733</v>
+        <v>-8602746.110845733</v>
       </c>
       <c r="C4">
-        <v>862084.3542336702</v>
+        <v>-862084.3542336702</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>187303860.4742464</v>
+        <v>-187303860.4742464</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>65181562.11162269</v>
+        <v>-65181562.11162269</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>428001.3227983945</v>
+        <v>-428001.3227983945</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8611441.656820355</v>
+        <v>-8611441.656820355</v>
       </c>
       <c r="C4">
-        <v>1243585.90651082</v>
+        <v>-1243585.90651082</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>205013314.7137185</v>
+        <v>-205013314.7137185</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>73230488.96078268</v>
+        <v>-73230488.96078268</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>687677.1119873124</v>
+        <v>-687677.1119873124</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8466143.159499764</v>
+        <v>-8466143.159499764</v>
       </c>
       <c r="C4">
-        <v>1998090.938378504</v>
+        <v>-1998090.938378504</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>225732752.7039056</v>
+        <v>-225732752.7039056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>81851514.63439028</v>
+        <v>-81851514.63439028</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3212089576817723</v>
+        <v>-0.3212089576817723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1787217341622013</v>
+        <v>-0.1787217341622013</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>964089.7634865157</v>
+        <v>-964089.7634865157</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8407219.510571964</v>
+        <v>-8407219.510571964</v>
       </c>
       <c r="C4">
-        <v>2801226.021088547</v>
+        <v>-2801226.021088547</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>249390747.0935375</v>
+        <v>-249390747.0935375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91530251.4234945</v>
+        <v>-91530251.4234945</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1241684.276925757</v>
+        <v>-1241684.276925757</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8323469.251214804</v>
+        <v>-8323469.251214804</v>
       </c>
       <c r="C4">
-        <v>3607795.081157499</v>
+        <v>-3607795.081157499</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276226024.0023039</v>
+        <v>-276226024.0023039</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103062026.1311429</v>
+        <v>-103062026.1311429</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1285157.235208055</v>
+        <v>-1285157.235208055</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7956969.707192365</v>
+        <v>-7956969.707192365</v>
       </c>
       <c r="C4">
-        <v>3734108.611874467</v>
+        <v>-3734108.611874467</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>300677145.0576633</v>
+        <v>-300677145.0576633</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>117573582.1305232</v>
+        <v>-117573582.1305232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1127919.792102672</v>
+        <v>-1127919.792102672</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7480481.299883901</v>
+        <v>-7480481.299883901</v>
       </c>
       <c r="C4">
-        <v>3277244.911213062</v>
+        <v>-3277244.911213062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>327373414.3224323</v>
+        <v>-327373414.3224323</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>136486856.1718746</v>
+        <v>-136486856.1718746</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1105100.287015466</v>
+        <v>-1105100.287015466</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6799728.948629791</v>
+        <v>-6799728.948629791</v>
       </c>
       <c r="C4">
-        <v>3210941.342956644</v>
+        <v>-3210941.342956644</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>366634799.553324</v>
+        <v>-366634799.553324</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>161412052.6280593</v>
+        <v>-161412052.6280593</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1016038.368320261</v>
+        <v>-1016038.368320261</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6694301.314288958</v>
+        <v>-6694301.314288958</v>
       </c>
       <c r="C4">
-        <v>2952166.098590541</v>
+        <v>-2952166.098590541</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>422225987.4812127</v>
+        <v>-422225987.4812127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>193972656.3265595</v>
+        <v>-193972656.3265595</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>881447.3824329025</v>
+        <v>-881447.3824329025</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7701602.103535226</v>
+        <v>-7701602.103535226</v>
       </c>
       <c r="C4">
-        <v>2561103.164255274</v>
+        <v>-2561103.164255274</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>501124462.4594842</v>
+        <v>-501124462.4594842</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>235583136.6823518</v>
+        <v>-235583136.6823518</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>750310.8361638914</v>
+        <v>-750310.8361638914</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10357879.8225123</v>
+        <v>-10357879.8225123</v>
       </c>
       <c r="C4">
-        <v>2180077.330731242</v>
+        <v>-2180077.330731242</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>610184555.0984871</v>
+        <v>-610184555.0984871</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>287213207.3184088</v>
+        <v>-287213207.3184088</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>833113.3808982132</v>
+        <v>-833113.3808982132</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>15767174.36675045</v>
+        <v>-15767174.36675045</v>
       </c>
       <c r="C4">
-        <v>2420665.5536404</v>
+        <v>-2420665.5536404</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>763144231.3013011</v>
+        <v>-763144231.3013011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>349173970.5812249</v>
+        <v>-349173970.5812249</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1289708.920083952</v>
+        <v>-1289708.920083952</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>23912231.41820888</v>
+        <v>-23912231.41820888</v>
       </c>
       <c r="C4">
-        <v>3747333.830725509</v>
+        <v>-3747333.830725509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>962823909.0567132</v>
+        <v>-962823909.0567132</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>420950974.2736368</v>
+        <v>-420950974.2736368</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.537794547116953</v>
+        <v>-3.537794547116953</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.96844067218304</v>
+        <v>-1.96844067218304</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1836752.838779691</v>
+        <v>-1836752.838779691</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>33431326.84671342</v>
+        <v>-33431326.84671342</v>
       </c>
       <c r="C4">
-        <v>5336805.804981343</v>
+        <v>-5336805.804981343</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1189789151.616757</v>
+        <v>-1189789151.616757</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>501094847.0318083</v>
+        <v>-501094847.0318083</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2562448.962265861</v>
+        <v>-2562448.962265861</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>46595937.57925286</v>
+        <v>-46595937.57925286</v>
       </c>
       <c r="C4">
-        <v>7445363.474094048</v>
+        <v>-7445363.474094048</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1458430597.713752</v>
+        <v>-1458430597.713752</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>587172872.071539</v>
+        <v>-587172872.071539</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3640125.521142491</v>
+        <v>-3640125.521142491</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>65964738.23260314</v>
+        <v>-65964738.23260314</v>
       </c>
       <c r="C4">
-        <v>10576623.37682882</v>
+        <v>-10576623.37682882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1785574043.419966</v>
+        <v>-1785574043.419966</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>675790532.6425673</v>
+        <v>-675790532.6425673</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4383041.793998373</v>
+        <v>-4383041.793998373</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>79083028.61822711</v>
+        <v>-79083028.61822711</v>
       </c>
       <c r="C4">
-        <v>12735215.31902313</v>
+        <v>-12735215.31902313</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2055797446.903163</v>
+        <v>-2055797446.903163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>762705375.9289145</v>
+        <v>-762705375.9289145</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4459265.39449365</v>
+        <v>-4459265.39449365</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>80241111.50390288</v>
+        <v>-80241111.50390288</v>
       </c>
       <c r="C4">
-        <v>12956687.98807862</v>
+        <v>-12956687.98807862</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2210542544.444529</v>
+        <v>-2210542544.444529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>843062365.7958894</v>
+        <v>-843062365.7958894</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4400365.304844571</v>
+        <v>-4400365.304844571</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>79192835.7484965</v>
+        <v>-79192835.7484965</v>
       </c>
       <c r="C4">
-        <v>12785549.91565186</v>
+        <v>-12785549.91565186</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2324923451.09172</v>
+        <v>-2324923451.09172</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>911767330.7267609</v>
+        <v>-911767330.7267609</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4297818.066907726</v>
+        <v>-4297818.066907726</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77312288.97211854</v>
+        <v>-77312288.97211854</v>
       </c>
       <c r="C4">
-        <v>12487592.19202599</v>
+        <v>-12487592.19202599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2402516450.02501</v>
+        <v>-2402516450.02501</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>963981161.567372</v>
+        <v>-963981161.567372</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4143778.047656562</v>
+        <v>-4143778.047656562</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>74231624.46634234</v>
+        <v>-74231624.46634234</v>
       </c>
       <c r="C4">
-        <v>12040018.81602118</v>
+        <v>-12040018.81602118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2433194684.075895</v>
+        <v>-2433194684.075895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>995673111.4328814</v>
+        <v>-995673111.4328814</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4006538.72066394</v>
+        <v>-4006538.72066394</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>71429365.00402303</v>
+        <v>-71429365.00402303</v>
       </c>
       <c r="C4">
-        <v>11641260.95295858</v>
+        <v>-11641260.95295858</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2424568110.606668</v>
+        <v>-2424568110.606668</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1004135471.139008</v>
+        <v>-1004135471.139008</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3873334.773553863</v>
+        <v>-3873334.773553863</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>68789548.76221795</v>
+        <v>-68789548.76221795</v>
       </c>
       <c r="C4">
-        <v>11254228.15073583</v>
+        <v>-11254228.15073583</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2373651916.637219</v>
+        <v>-2373651916.637219</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>988351776.6537579</v>
+        <v>-988351776.6537579</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.73191956828727</v>
+        <v>-19.73191956828727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.97890578471092</v>
+        <v>-10.97890578471092</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3536180.004641718</v>
+        <v>-3536180.004641718</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>62485276.83308805</v>
+        <v>-62485276.83308805</v>
       </c>
       <c r="C4">
-        <v>10274602.86315336</v>
+        <v>-10274602.86315336</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2248859477.449635</v>
+        <v>-2248859477.449635</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>949135755.2948352</v>
+        <v>-949135755.2948352</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2763144.66869669</v>
+        <v>-2763144.66869669</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>48284530.18219824</v>
+        <v>-48284530.18219824</v>
       </c>
       <c r="C4">
-        <v>8028498.008311774</v>
+        <v>-8028498.008311774</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2018137808.559912</v>
+        <v>-2018137808.559912</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>889014243.7749161</v>
+        <v>-889014243.7749161</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1565259.871487506</v>
+        <v>-1565259.871487506</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>26214585.74518684</v>
+        <v>-26214585.74518684</v>
       </c>
       <c r="C4">
-        <v>4547965.187307835</v>
+        <v>-4547965.187307835</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1688977861.376426</v>
+        <v>-1688977861.376426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>811895497.0102601</v>
+        <v>-811895497.0102601</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>763542.3511260042</v>
+        <v>-763542.3511260042</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10825849.64173273</v>
+        <v>-10825849.64173273</v>
       </c>
       <c r="C4">
-        <v>2218522.36501545</v>
+        <v>-2218522.36501545</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1396461524.374034</v>
+        <v>-1396461524.374034</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>722616110.7955151</v>
+        <v>-722616110.7955151</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>688867.4619037737</v>
+        <v>-688867.4619037737</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8391798.867579907</v>
+        <v>-8391798.867579907</v>
       </c>
       <c r="C4">
-        <v>2001549.578109449</v>
+        <v>-2001549.578109449</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1204036989.99772</v>
+        <v>-1204036989.99772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>626469998.0472809</v>
+        <v>-626469998.0472809</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>656887.8973093012</v>
+        <v>-656887.8973093012</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7518547.123408487</v>
+        <v>-7518547.123408487</v>
       </c>
       <c r="C4">
-        <v>1908630.856349396</v>
+        <v>-1908630.856349396</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1021307761.732108</v>
+        <v>-1021307761.732108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>528786312.1323309</v>
+        <v>-528786312.1323309</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>501123.5144889186</v>
+        <v>-501123.5144889186</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5573897.653600915</v>
+        <v>-5573897.653600915</v>
       </c>
       <c r="C4">
-        <v>1456047.228931434</v>
+        <v>-1456047.228931434</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>833959833.3228251</v>
+        <v>-833959833.3228251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>434564298.7196801</v>
+        <v>-434564298.7196801</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>239992.8153784915</v>
+        <v>-239992.8153784915</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2532487.387135083</v>
+        <v>-2532487.387135083</v>
       </c>
       <c r="C4">
-        <v>697314.8608915113</v>
+        <v>-697314.8608915113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>650037851.7401425</v>
+        <v>-650037851.7401425</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>348135136.4545062</v>
+        <v>-348135136.4545062</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>44739.8761257465</v>
+        <v>-44739.8761257465</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>477731.4502975749</v>
+        <v>-477731.4502975749</v>
       </c>
       <c r="C4">
-        <v>129994.6435801693</v>
+        <v>-129994.6435801693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>494935322.5977437</v>
+        <v>-494935322.5977437</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>272835111.973386</v>
+        <v>-272835111.973386</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6963.158393172329</v>
+        <v>-6963.158393172329</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>448153.3458573899</v>
+        <v>-448153.3458573899</v>
       </c>
       <c r="C4">
-        <v>20231.91327058235</v>
+        <v>-20231.91327058235</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>382186596.1686379</v>
+        <v>-382186596.1686379</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>210730846.8357415</v>
+        <v>-210730846.8357415</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>78.36794123094553</v>
+        <v>-78.36794123094553</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>43.60418358379694</v>
+        <v>-43.60418358379694</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13341.75860420096</v>
+        <v>-13341.75860420096</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1109687.456180614</v>
+        <v>-1109687.456180614</v>
       </c>
       <c r="C4">
-        <v>38765.35441473179</v>
+        <v>-38765.35441473179</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>300476030.4473771</v>
+        <v>-300476030.4473771</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>162486595.6997058</v>
+        <v>-162486595.6997058</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>39028.77025874602</v>
+        <v>-39028.77025874602</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2346314.979351913</v>
+        <v>-2346314.979351913</v>
       </c>
       <c r="C4">
-        <v>113400.6510187526</v>
+        <v>-113400.6510187526</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>247190150.62225</v>
+        <v>-247190150.62225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127455538.6224677</v>
+        <v>-127455538.6224677</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>105592.1295358044</v>
+        <v>-105592.1295358044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4189785.774185508</v>
+        <v>-4189785.774185508</v>
       </c>
       <c r="C4">
-        <v>306804.8558135997</v>
+        <v>-306804.8558135997</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>220144360.5219504</v>
+        <v>-220144360.5219504</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104002223.7716206</v>
+        <v>-104002223.7716206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>243609.6316404891</v>
+        <v>-243609.6316404891</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6501125.908896817</v>
+        <v>-6501125.908896817</v>
       </c>
       <c r="C4">
-        <v>707823.7576875573</v>
+        <v>-707823.7576875573</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>215175743.0794767</v>
+        <v>-215175743.0794767</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>89964364.9556729</v>
+        <v>-89964364.9556729</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>443489.0544502382</v>
+        <v>-443489.0544502382</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8945525.046667706</v>
+        <v>-8945525.046667706</v>
       </c>
       <c r="C4">
-        <v>1288586.526322285</v>
+        <v>-1288586.526322285</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>225578855.9076574</v>
+        <v>-225578855.9076574</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83103887.79208565</v>
+        <v>-83103887.79208565</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>623365.0683580656</v>
+        <v>-623365.0683580656</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11228280.022279</v>
+        <v>-11228280.022279</v>
       </c>
       <c r="C4">
-        <v>1811228.078812266</v>
+        <v>-1811228.078812266</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>243615908.3831742</v>
+        <v>-243615908.3831742</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>81418841.70809038</v>
+        <v>-81418841.70809038</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>740829.890331668</v>
+        <v>-740829.890331668</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13246393.65563534</v>
+        <v>-13246393.65563534</v>
       </c>
       <c r="C4">
-        <v>2152529.820970626</v>
+        <v>-2152529.820970626</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>264564935.7956514</v>
+        <v>-264564935.7956514</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83272833.02434416</v>
+        <v>-83272833.02434416</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>767045.0069743013</v>
+        <v>-767045.0069743013</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13728858.52478276</v>
+        <v>-13728858.52478276</v>
       </c>
       <c r="C4">
-        <v>2228699.561244238</v>
+        <v>-2228699.561244238</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276124978.4510498</v>
+        <v>-276124978.4510498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>87386670.0185629</v>
+        <v>-87386670.0185629</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>585721.1309781654</v>
+        <v>-585721.1309781654</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10398266.41387591</v>
+        <v>-10398266.41387591</v>
       </c>
       <c r="C4">
-        <v>1701851.150523494</v>
+        <v>-1701851.150523494</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>257035128.6832363</v>
+        <v>-257035128.6832363</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92773034.36476125</v>
+        <v>-92773034.36476125</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>267481.7642815253</v>
+        <v>-267481.7642815253</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4668629.62147782</v>
+        <v>-4668629.62147782</v>
       </c>
       <c r="C4">
-        <v>777185.8043201405</v>
+        <v>-777185.8043201405</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>217990988.2201145</v>
+        <v>-217990988.2201145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>98672418.42307685</v>
+        <v>-98672418.42307685</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.541728448181275E-12</v>
+        <v>-4.541728448181275E-12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.176523427991146E-09</v>
+        <v>-3.176523427991146E-09</v>
       </c>
       <c r="C4">
-        <v>1.319628979749191E-11</v>
+        <v>-1.319628979749191E-11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>256.31001015633</v>
+        <v>-256.31001015633</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>142.6117435351181</v>
+        <v>-142.6117435351181</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>75453.44699518716</v>
+        <v>-75453.44699518716</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1276168.710455621</v>
+        <v>-1276168.710455621</v>
       </c>
       <c r="C4">
-        <v>219234.9375636742</v>
+        <v>-219234.9375636742</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>198990971.17512</v>
+        <v>-198990971.17512</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104504983.9650887</v>
+        <v>-104504983.9650887</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>72303.95612141074</v>
+        <v>-72303.95612141074</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1237165.849827908</v>
+        <v>-1237165.849827908</v>
       </c>
       <c r="C4">
-        <v>210083.885324619</v>
+        <v>-210083.885324619</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>208197030.9268277</v>
+        <v>-208197030.9268277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>109828554.60692</v>
+        <v>-109828554.60692</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>166509.968791445</v>
+        <v>-166509.968791445</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2859881.281309452</v>
+        <v>-2859881.281309452</v>
       </c>
       <c r="C4">
-        <v>483805.6320216923</v>
+        <v>-483805.6320216923</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>230386618.5883667</v>
+        <v>-230386618.5883667</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>114296569.5190669</v>
+        <v>-114296569.5190669</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>306583.3010469035</v>
+        <v>-306583.3010469035</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5266978.401978531</v>
+        <v>-5266978.401978531</v>
       </c>
       <c r="C4">
-        <v>890797.8831950552</v>
+        <v>-890797.8831950552</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>257378018.4352192</v>
+        <v>-257378018.4352192</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>117623673.5478761</v>
+        <v>-117623673.5478761</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>354460.9358765964</v>
+        <v>-354460.9358765964</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6088203.576372924</v>
+        <v>-6088203.576372924</v>
       </c>
       <c r="C4">
-        <v>1029909.490425585</v>
+        <v>-1029909.490425585</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>268050890.6475492</v>
+        <v>-268050890.6475492</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119572296.5872651</v>
+        <v>-119572296.5872651</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>243280.0344074599</v>
+        <v>-243280.0344074599</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4158769.164779619</v>
+        <v>-4158769.164779619</v>
       </c>
       <c r="C4">
-        <v>706866.0913160137</v>
+        <v>-706866.0913160137</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>251945308.2868596</v>
+        <v>-251945308.2868596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119967369.9325239</v>
+        <v>-119967369.9325239</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>111692.0960873175</v>
+        <v>-111692.0960873175</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1879337.924543617</v>
+        <v>-1879337.924543617</v>
       </c>
       <c r="C4">
-        <v>324528.7085906207</v>
+        <v>-324528.7085906207</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>229858141.1852919</v>
+        <v>-229858141.1852919</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118734705.1382665</v>
+        <v>-118734705.1382665</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>81598.78391785956</v>
+        <v>-81598.78391785956</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1347041.420322577</v>
+        <v>-1347041.420322577</v>
       </c>
       <c r="C4">
-        <v>237090.6169289358</v>
+        <v>-237090.6169289358</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>220224710.7547889</v>
+        <v>-220224710.7547889</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115948052.1417896</v>
+        <v>-115948052.1417896</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>176180.7579231928</v>
+        <v>-176180.7579231928</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2928365.349094389</v>
+        <v>-2928365.349094389</v>
       </c>
       <c r="C4">
-        <v>511904.7439366909</v>
+        <v>-511904.7439366909</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>226749624.2935023</v>
+        <v>-226749624.2935023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>111863701.7706883</v>
+        <v>-111863701.7706883</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>334969.777634799</v>
+        <v>-334969.777634799</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5693984.106687174</v>
+        <v>-5693984.106687174</v>
       </c>
       <c r="C4">
-        <v>973276.6521609967</v>
+        <v>-973276.6521609967</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>241956960.9791194</v>
+        <v>-241956960.9791194</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106921749.5266547</v>
+        <v>-106921749.5266547</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.863812104825415E-10</v>
+        <v>-2.863812104825415E-10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.463293288435245E-07</v>
+        <v>-1.463293288435245E-07</v>
       </c>
       <c r="C4">
-        <v>8.32099384452962E-10</v>
+        <v>-8.32099384452962E-10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>731.9491318457182</v>
+        <v>-731.9491318457182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>407.2589348486258</v>
+        <v>-407.2589348486258</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>425856.3591934135</v>
+        <v>-425856.3591934135</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7641696.562805056</v>
+        <v>-7641696.562805056</v>
       </c>
       <c r="C4">
-        <v>1237353.574115928</v>
+        <v>-1237353.574115928</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>249032820.8800202</v>
+        <v>-249032820.8800202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101701530.3128643</v>
+        <v>-101701530.3128643</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>383424.1561061427</v>
+        <v>-383424.1561061427</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7564039.660398627</v>
+        <v>-7564039.660398627</v>
       </c>
       <c r="C4">
-        <v>1114064.025858175</v>
+        <v>-1114064.025858175</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>238689439.5854553</v>
+        <v>-238689439.5854553</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>96834485.92555059</v>
+        <v>-96834485.92555059</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>326074.6490254955</v>
+        <v>-326074.6490254955</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6995656.522089268</v>
+        <v>-6995656.522089268</v>
       </c>
       <c r="C4">
-        <v>947431.2727523409</v>
+        <v>-947431.2727523409</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>226060440.3759976</v>
+        <v>-226060440.3759976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92895335.0662322</v>
+        <v>-92895335.0662322</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>342590.1423874317</v>
+        <v>-342590.1423874317</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7272684.59106111</v>
+        <v>-7272684.59106111</v>
       </c>
       <c r="C4">
-        <v>995418.1216005892</v>
+        <v>-995418.1216005892</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>223829349.2377589</v>
+        <v>-223829349.2377589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>90303135.32412478</v>
+        <v>-90303135.32412478</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>419797.5823930147</v>
+        <v>-419797.5823930147</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8341879.111571836</v>
+        <v>-8341879.111571836</v>
       </c>
       <c r="C4">
-        <v>1219749.400861493</v>
+        <v>-1219749.400861493</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>231652495.4580763</v>
+        <v>-231652495.4580763</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>89261025.78148243</v>
+        <v>-89261025.78148243</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>482042.9776436312</v>
+        <v>-482042.9776436312</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9221679.440272756</v>
+        <v>-9221679.440272756</v>
       </c>
       <c r="C4">
-        <v>1400607.478057961</v>
+        <v>-1400607.478057961</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>240474972.797033</v>
+        <v>-240474972.797033</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>89747916.35853608</v>
+        <v>-89747916.35853608</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>510992.1654782915</v>
+        <v>-510992.1654782915</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9631993.848260131</v>
+        <v>-9631993.848260131</v>
       </c>
       <c r="C4">
-        <v>1484721.241447135</v>
+        <v>-1484721.241447135</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>247428603.4329267</v>
+        <v>-247428603.4329267</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91555740.49025127</v>
+        <v>-91555740.49025127</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>533118.0332848931</v>
+        <v>-533118.0332848931</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9779139.316485962</v>
+        <v>-9779139.316485962</v>
       </c>
       <c r="C4">
-        <v>1549009.401104464</v>
+        <v>-1549009.401104464</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>254068185.8832822</v>
+        <v>-254068185.8832822</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94352594.43336098</v>
+        <v>-94352594.43336098</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>563102.8471023726</v>
+        <v>-563102.8471023726</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9845416.99771365</v>
+        <v>-9845416.99771365</v>
       </c>
       <c r="C4">
-        <v>1636132.243690474</v>
+        <v>-1636132.243690474</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>261385860.49515</v>
+        <v>-261385860.49515</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>97750197.65600803</v>
+        <v>-97750197.65600803</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>583650.6306986229</v>
+        <v>-583650.6306986229</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9802425.861044884</v>
+        <v>-9802425.861044884</v>
       </c>
       <c r="C4">
-        <v>1695835.176203062</v>
+        <v>-1695835.176203062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>268058198.9841475</v>
+        <v>-268058198.9841475</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101360922.3073241</v>
+        <v>-101360922.3073241</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-80261199.94487421</v>
+        <v>-80261199.94487423</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-276226024.0023039</v>
+        <v>-276226024.0023038</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-327373414.3224323</v>
+        <v>-327373414.3224322</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2373651916.637219</v>
+        <v>-2373651916.637218</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-833959833.3228251</v>
+        <v>-833959833.322825</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270537467.2867401</v>
+        <v>-270537467.28674</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-38778.35273497324</v>
+        <v>-38778.35273497323</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-435820.7931180466</v>
+        <v>-435820.7931180467</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-737006.3630146666</v>
+        <v>-737006.3630146667</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-80261199.94487423</v>
+        <v>-80261199.94487421</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225732752.7039055</v>
+        <v>-225732752.7039056</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276226024.0023038</v>
+        <v>-276226024.0023039</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-763144231.3013012</v>
+        <v>-763144231.3013011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2373651916.637218</v>
+        <v>-2373651916.637219</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2018137808.559913</v>
+        <v>-2018137808.559912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-650037851.7401423</v>
+        <v>-650037851.7401425</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-264564935.7956515</v>
+        <v>-264564935.7956514</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231652495.4580762</v>
+        <v>-231652495.4580763</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -904,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270537467.28674</v>
+        <v>-270537467.2867401</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1619,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-38778.35273497323</v>
+        <v>-38778.35273497324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2191,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-435820.7931180467</v>
+        <v>-435820.7931180466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2334,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-737006.3630146667</v>
+        <v>-737006.3630146666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4193,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-80261199.94487421</v>
+        <v>-80261199.94487423</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5480,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225732752.7039056</v>
+        <v>-225732752.7039055</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5909,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276226024.0023039</v>
+        <v>-276226024.0023038</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6910,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-763144231.3013011</v>
+        <v>-763144231.3013012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8626,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2373651916.637219</v>
+        <v>-2373651916.637218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9055,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2018137808.559912</v>
+        <v>-2018137808.559913</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9913,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-650037851.7401425</v>
+        <v>-650037851.7401423</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11343,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-264564935.7956514</v>
+        <v>-264564935.7956515</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14203,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231652495.4580763</v>
+        <v>-231652495.4580762</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-9.207126479884875E-09</v>
+        <v>-9.207126479884876E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.949172181230573E-06</v>
+        <v>-3.949172181230575E-12</v>
       </c>
       <c r="E7">
-        <v>-2.675190967865477E-08</v>
+        <v>-2.675190967865477E-14</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1871.334539450526</v>
+        <v>-0.001871334539450526</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1041.216755895649</v>
+        <v>-0.001041216755895649</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-559340.8812944479</v>
+        <v>-0.5593408812944473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9367671.597021785</v>
+        <v>-9.367671597021852</v>
       </c>
       <c r="E7">
-        <v>-1625201.605371596</v>
+        <v>-1.625201605371594</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270537467.2867401</v>
+        <v>-270.5374672867407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104838616.2666857</v>
+        <v>-104.8386162666857</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-483507.1267379658</v>
+        <v>-0.483507126737963</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8336361.363219527</v>
+        <v>-8.336361363219549</v>
       </c>
       <c r="E7">
-        <v>-1404861.659252636</v>
+        <v>-1.404861659252627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266660663.4959664</v>
+        <v>-266.6606634959666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107903680.0354381</v>
+        <v>-107.9036800354381</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.993646203070549E-07</v>
+        <v>-1.993646203070548E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.219819169558133E-05</v>
+        <v>-7.219819169558139E-11</v>
       </c>
       <c r="E7">
-        <v>-5.792669762086641E-07</v>
+        <v>-5.792669762086639E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4367.773167791256</v>
+        <v>-0.004367773167791255</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2430.243245068812</v>
+        <v>-0.002430243245068812</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.147865477623665E-06</v>
+        <v>-3.147865477623665E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0009721639725288414</v>
+        <v>-9.721639725288419E-10</v>
       </c>
       <c r="E7">
-        <v>-9.146329543959594E-06</v>
+        <v>-9.146329543959594E-12</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9499.738803183971</v>
+        <v>-0.009499738803183971</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5285.682316676846</v>
+        <v>-0.005285682316676846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.827082216865558E-05</v>
+        <v>-3.827082216865558E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.01021966522846959</v>
+        <v>-1.02196652284696E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0001111983831459796</v>
+        <v>-1.111983831459796E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-19587.30293089002</v>
+        <v>-0.01958730293089003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10898.39846794105</v>
+        <v>-0.01089839846794105</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0003735642958475674</v>
+        <v>-3.735642958475674E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.08756017276618315</v>
+        <v>-8.756017276618319E-08</v>
       </c>
       <c r="E7">
-        <v>-0.001085415555387195</v>
+        <v>-1.085415555387195E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-38778.35273497324</v>
+        <v>-0.03877835273497324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21576.04300662768</v>
+        <v>-0.02157604300662768</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003026265363417934</v>
+        <v>-3.026265363417933E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.6317572194171536</v>
+        <v>-6.317572194171539E-07</v>
       </c>
       <c r="E7">
-        <v>-0.008793012439078627</v>
+        <v>-8.793012439078625E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-74320.63424553772</v>
+        <v>-0.07432063424553773</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-41349.63471983165</v>
+        <v>-0.04134963471983166</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02089511830815129</v>
+        <v>-2.089511830815129E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.93744487265237</v>
+        <v>-3.937444872652373E-06</v>
       </c>
       <c r="E7">
-        <v>-0.06071213629200177</v>
+        <v>-6.071213629200177E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138274.7486919603</v>
+        <v>-0.1382747486919602</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-76920.21301010353</v>
+        <v>-0.07692021301010353</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1256457289403408</v>
+        <v>-1.256457289403408E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-21.63035693666707</v>
+        <v>-2.163035693666708E-05</v>
       </c>
       <c r="E7">
-        <v>-0.3650719037545758</v>
+        <v>-3.650719037545756E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-249489.5330526543</v>
+        <v>-0.2494895330526544</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-138727.0190655668</v>
+        <v>-0.1387270190655669</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6697175204788549</v>
+        <v>-6.697175204788548E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-106.4552450160593</v>
+        <v>-0.0001064552450160593</v>
       </c>
       <c r="E7">
-        <v>-1.945908167679149</v>
+        <v>-1.945908167679149E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-435820.7931180466</v>
+        <v>-0.4358207931180466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-242049.5502695575</v>
+        <v>-0.2420495502695575</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.210885681117295</v>
+        <v>-3.210885681117294E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-475.6678161200977</v>
+        <v>-0.0004756678161200978</v>
       </c>
       <c r="E7">
-        <v>-9.329438877308636</v>
+        <v>-9.329438877308634E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-737006.3630146666</v>
+        <v>-0.7370063630146667</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-408092.2488653865</v>
+        <v>-0.4080922488653865</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-14.01642551782736</v>
+        <v>-1.401642551782736E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1950.909940972719</v>
+        <v>-0.001950909940972719</v>
       </c>
       <c r="E7">
-        <v>-40.72564336872214</v>
+        <v>-4.072564336872213E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1209789.701378668</v>
+        <v>-1.209789701378668</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-664996.5638578119</v>
+        <v>-0.6649965638578118</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-56.27888603562247</v>
+        <v>-5.627888603562245E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7410.852423759497</v>
+        <v>-0.007410852423759498</v>
       </c>
       <c r="E7">
-        <v>-163.521993461211</v>
+        <v>-0.000163521993461211</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1940392.277899685</v>
+        <v>-1.940392277899686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1048699.757864777</v>
+        <v>-1.048699757864778</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-209.5900369230811</v>
+        <v>-0.0002095900369230811</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26254.69408286976</v>
+        <v>-0.02625469408286976</v>
       </c>
       <c r="E7">
-        <v>-608.9775946449572</v>
+        <v>-0.0006089775946449573</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3079219.530361461</v>
+        <v>-3.079219530361461</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1603534.752685059</v>
+        <v>-1.603534752685058</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-728.4695443414295</v>
+        <v>-0.0007284695443414295</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87087.21209705915</v>
+        <v>-0.08708721209705916</v>
       </c>
       <c r="E7">
-        <v>-2116.616025254862</v>
+        <v>-0.002116616025254862</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4936943.733027384</v>
+        <v>-4.936943733027383</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2382430.639496836</v>
+        <v>-2.382430639496836</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2369.347880495729</v>
+        <v>-0.002369347880495729</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-269856.0150732915</v>
+        <v>-0.2698560150732915</v>
       </c>
       <c r="E7">
-        <v>-6884.295619791073</v>
+        <v>-0.006884295619791073</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-8226928.605278482</v>
+        <v>-8.226928605278481</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3446505.182919225</v>
+        <v>-3.446505182919225</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-7175.459138144647</v>
+        <v>-0.007175459138144648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-768257.9605577847</v>
+        <v>-0.7682579605577846</v>
       </c>
       <c r="E7">
-        <v>-20848.76700519962</v>
+        <v>-0.02084876700519963</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-14538712.49341675</v>
+        <v>-14.53871249341675</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4863769.776622354</v>
+        <v>-4.863769776622355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-19778.8180862548</v>
+        <v>-0.0197788180862548</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1913622.041627135</v>
+        <v>-1.913622041627135</v>
       </c>
       <c r="E7">
-        <v>-57468.65280389283</v>
+        <v>-0.05746865280389282</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-26539937.15175186</v>
+        <v>-26.53993715175188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6706670.036031228</v>
+        <v>-6.706670036031231</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-46723.41399330377</v>
+        <v>-0.04672341399330377</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3758669.228356218</v>
+        <v>-3.758669228356218</v>
       </c>
       <c r="E7">
-        <v>-135757.9429106404</v>
+        <v>-0.1357579429106404</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-44906480.27323292</v>
+        <v>-44.90648027323292</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9048367.162567494</v>
+        <v>-9.048367162567496</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-83627.43118378855</v>
+        <v>-0.08362743118378857</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5190378.736548136</v>
+        <v>-5.190378736548134</v>
       </c>
       <c r="E7">
-        <v>-242984.9845741016</v>
+        <v>-0.2429849845741016</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61508756.98198564</v>
+        <v>-61.50875698198563</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11957643.26165435</v>
+        <v>-11.95764326165435</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-94692.20023563194</v>
+        <v>-0.09469220023563193</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5564127.231847872</v>
+        <v>-5.56412723184787</v>
       </c>
       <c r="E7">
-        <v>-275134.3965471833</v>
+        <v>-0.2751343965471833</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-70865219.38590416</v>
+        <v>-70.86521938590415</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-15492325.85019782</v>
+        <v>-15.49232585019782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.005245337528199612</v>
+        <v>-5.24533752819961E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002918523275539109</v>
+        <v>-2.918523275539107E-09</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-63191.55475301121</v>
+        <v>-0.06319155475301121</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5920848.461557361</v>
+        <v>-5.920848461557361</v>
       </c>
       <c r="E7">
-        <v>-183607.2056683054</v>
+        <v>-0.1836072056683054</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-80261199.94487423</v>
+        <v>-80.26119994487422</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19691908.99184442</v>
+        <v>-19.69190899184442</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-44909.05952650289</v>
+        <v>-0.04490905952650289</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6505244.954594598</v>
+        <v>-6.505244954594595</v>
       </c>
       <c r="E7">
-        <v>-130486.2170440563</v>
+        <v>-0.1304862170440563</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-92863994.87418094</v>
+        <v>-92.8639948741809</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24570394.58664584</v>
+        <v>-24.57039458664583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-72305.19519900011</v>
+        <v>-0.0723051951990001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7121089.579884261</v>
+        <v>-7.121089579884262</v>
       </c>
       <c r="E7">
-        <v>-210087.4855457986</v>
+        <v>-0.2100874855457986</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-107992155.6447516</v>
+        <v>-107.9921556447516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-30110406.64153234</v>
+        <v>-30.11040664153235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-112801.7177262162</v>
+        <v>-0.1128017177262162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7787562.969540309</v>
+        <v>-7.787562969540311</v>
       </c>
       <c r="E7">
-        <v>-327752.7870179294</v>
+        <v>-0.3277527870179294</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-124904380.5012466</v>
+        <v>-124.9043805012466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36260352.76837938</v>
+        <v>-36.26035276837938</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-159455.4160762184</v>
+        <v>-0.1594554160762184</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8296872.659789899</v>
+        <v>-8.296872659789903</v>
       </c>
       <c r="E7">
-        <v>-463308.1665558536</v>
+        <v>-0.4633081665558535</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-141762533.6413952</v>
+        <v>-141.7625336413952</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-42937335.81492009</v>
+        <v>-42.93733581492009</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-220686.439526671</v>
+        <v>-0.220686439526671</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8864561.89793992</v>
+        <v>-8.864561897939923</v>
       </c>
       <c r="E7">
-        <v>-641218.9199767821</v>
+        <v>-0.641218919976782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-160164847.5700569</v>
+        <v>-160.1648475700569</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-50039301.27374516</v>
+        <v>-50.03930127374516</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-264342.7164307792</v>
+        <v>-0.2643427164307792</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8946910.480109677</v>
+        <v>-8.946910480109684</v>
       </c>
       <c r="E7">
-        <v>-768065.0949692263</v>
+        <v>-0.7680650949692263</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-175180187.3507006</v>
+        <v>-175.1801873507007</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-57470236.57685966</v>
+        <v>-57.47023657685966</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-296701.0497980423</v>
+        <v>-0.2967010497980424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8602746.110845733</v>
+        <v>-8.602746110845739</v>
       </c>
       <c r="E7">
-        <v>-862084.3542336702</v>
+        <v>-0.8620843542336705</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-187303860.4742464</v>
+        <v>-187.3038604742464</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-65181562.11162269</v>
+        <v>-65.18156211162271</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-428001.3227983945</v>
+        <v>-0.4280013227983947</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8611441.656820355</v>
+        <v>-8.611441656820359</v>
       </c>
       <c r="E7">
-        <v>-1243585.90651082</v>
+        <v>-1.243585906510821</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205013314.7137185</v>
+        <v>-205.0133147137186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-73230488.96078268</v>
+        <v>-73.23048896078265</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-687677.1119873124</v>
+        <v>-0.6876771119873124</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8466143.159499764</v>
+        <v>-8.466143159499765</v>
       </c>
       <c r="E7">
-        <v>-1998090.938378504</v>
+        <v>-1.998090938378504</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225732752.7039055</v>
+        <v>-225.7327527039056</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81851514.63439028</v>
+        <v>-81.85151463439026</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3212089576817723</v>
+        <v>-3.21208957681772E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1787217341622013</v>
+        <v>-1.787217341622011E-07</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-964089.7634865157</v>
+        <v>-0.9640897634865155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8407219.510571964</v>
+        <v>-8.407219510571959</v>
       </c>
       <c r="E7">
-        <v>-2801226.021088547</v>
+        <v>-2.801226021088546</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-249390747.0935375</v>
+        <v>-249.3907470935375</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91530251.4234945</v>
+        <v>-91.53025142349452</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1241684.276925757</v>
+        <v>-1.241684276925757</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8323469.251214804</v>
+        <v>-8.323469251214803</v>
       </c>
       <c r="E7">
-        <v>-3607795.081157499</v>
+        <v>-3.607795081157497</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276226024.0023038</v>
+        <v>-276.2260240023039</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103062026.1311429</v>
+        <v>-103.0620261311429</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1285157.235208055</v>
+        <v>-1.285157235208055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7956969.707192365</v>
+        <v>-7.956969707192363</v>
       </c>
       <c r="E7">
-        <v>-3734108.611874467</v>
+        <v>-3.734108611874467</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300677145.0576633</v>
+        <v>-300.677145057663</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117573582.1305232</v>
+        <v>-117.5735821305231</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1127919.792102672</v>
+        <v>-1.127919792102672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7480481.299883901</v>
+        <v>-7.4804812998839</v>
       </c>
       <c r="E7">
-        <v>-3277244.911213062</v>
+        <v>-3.277244911213061</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327373414.3224323</v>
+        <v>-327.3734143224323</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-136486856.1718746</v>
+        <v>-136.4868561718746</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1105100.287015466</v>
+        <v>-1.105100287015466</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6799728.948629791</v>
+        <v>-6.799728948629785</v>
       </c>
       <c r="E7">
-        <v>-3210941.342956644</v>
+        <v>-3.210941342956643</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-366634799.553324</v>
+        <v>-366.634799553324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-161412052.6280593</v>
+        <v>-161.4120526280593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1016038.368320261</v>
+        <v>-1.016038368320261</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6694301.314288958</v>
+        <v>-6.694301314288953</v>
       </c>
       <c r="E7">
-        <v>-2952166.098590541</v>
+        <v>-2.95216609859054</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-422225987.4812127</v>
+        <v>-422.2259874812124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-193972656.3265595</v>
+        <v>-193.9726563265594</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-881447.3824329025</v>
+        <v>-0.8814473824329028</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7701602.103535226</v>
+        <v>-7.701602103535219</v>
       </c>
       <c r="E7">
-        <v>-2561103.164255274</v>
+        <v>-2.561103164255274</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-501124462.4594842</v>
+        <v>-501.1244624594843</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-235583136.6823518</v>
+        <v>-235.5831366823519</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-750310.8361638914</v>
+        <v>-0.7503108361638912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10357879.8225123</v>
+        <v>-10.35787982251229</v>
       </c>
       <c r="E7">
-        <v>-2180077.330731242</v>
+        <v>-2.180077330731241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-610184555.0984871</v>
+        <v>-610.184555098487</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-287213207.3184088</v>
+        <v>-287.2132073184088</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-833113.3808982132</v>
+        <v>-0.8331133808982129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15767174.36675045</v>
+        <v>-15.76717436675045</v>
       </c>
       <c r="E7">
-        <v>-2420665.5536404</v>
+        <v>-2.420665553640399</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-763144231.3013012</v>
+        <v>-763.1442313013011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-349173970.5812249</v>
+        <v>-349.1739705812249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1289708.920083952</v>
+        <v>-1.289708920083952</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-23912231.41820888</v>
+        <v>-23.91223141820888</v>
       </c>
       <c r="E7">
-        <v>-3747333.830725509</v>
+        <v>-3.747333830725508</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-962823909.0567132</v>
+        <v>-962.8239090567134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-420950974.2736368</v>
+        <v>-420.9509742736368</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.537794547116953</v>
+        <v>-3.537794547116952E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.96844067218304</v>
+        <v>-1.968440672183039E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1836752.838779691</v>
+        <v>-1.83675283877969</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-33431326.84671342</v>
+        <v>-33.43132684671343</v>
       </c>
       <c r="E7">
-        <v>-5336805.804981343</v>
+        <v>-5.336805804981338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1189789151.616757</v>
+        <v>-1189.789151616757</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-501094847.0318083</v>
+        <v>-501.0948470318083</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2562448.962265861</v>
+        <v>-2.562448962265861</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-46595937.57925286</v>
+        <v>-46.59593757925284</v>
       </c>
       <c r="E7">
-        <v>-7445363.474094048</v>
+        <v>-7.445363474094048</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1458430597.713752</v>
+        <v>-1458.430597713752</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-587172872.071539</v>
+        <v>-587.1728720715395</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3640125.521142491</v>
+        <v>-3.640125521142491</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-65964738.23260314</v>
+        <v>-65.96473823260314</v>
       </c>
       <c r="E7">
-        <v>-10576623.37682882</v>
+        <v>-10.57662337682882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1785574043.419966</v>
+        <v>-1785.574043419965</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-675790532.6425673</v>
+        <v>-675.7905326425671</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4383041.793998373</v>
+        <v>-4.383041793998372</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79083028.61822711</v>
+        <v>-79.08302861822713</v>
       </c>
       <c r="E7">
-        <v>-12735215.31902313</v>
+        <v>-12.73521531902314</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2055797446.903163</v>
+        <v>-2055.797446903161</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-762705375.9289145</v>
+        <v>-762.7053759289139</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4459265.39449365</v>
+        <v>-4.459265394493651</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80241111.50390288</v>
+        <v>-80.24111150390289</v>
       </c>
       <c r="E7">
-        <v>-12956687.98807862</v>
+        <v>-12.95668798807862</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2210542544.444529</v>
+        <v>-2210.542544444529</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-843062365.7958894</v>
+        <v>-843.0623657958896</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4400365.304844571</v>
+        <v>-4.400365304844571</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79192835.7484965</v>
+        <v>-79.19283574849653</v>
       </c>
       <c r="E7">
-        <v>-12785549.91565186</v>
+        <v>-12.78554991565187</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2324923451.09172</v>
+        <v>-2324.92345109172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-911767330.7267609</v>
+        <v>-911.7673307267607</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4297818.066907726</v>
+        <v>-4.297818066907726</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-77312288.97211854</v>
+        <v>-77.31228897211857</v>
       </c>
       <c r="E7">
-        <v>-12487592.19202599</v>
+        <v>-12.48759219202599</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2402516450.02501</v>
+        <v>-2402.51645002501</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-963981161.567372</v>
+        <v>-963.9811615673721</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4143778.047656562</v>
+        <v>-4.143778047656565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-74231624.46634234</v>
+        <v>-74.23162446634238</v>
       </c>
       <c r="E7">
-        <v>-12040018.81602118</v>
+        <v>-12.04001881602119</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2433194684.075895</v>
+        <v>-2433.194684075896</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-995673111.4328814</v>
+        <v>-995.6731114328816</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4006538.72066394</v>
+        <v>-4.006538720663942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-71429365.00402303</v>
+        <v>-71.42936500402304</v>
       </c>
       <c r="E7">
-        <v>-11641260.95295858</v>
+        <v>-11.64126095295858</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2424568110.606668</v>
+        <v>-2424.56811060667</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1004135471.139008</v>
+        <v>-1004.135471139009</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3873334.773553863</v>
+        <v>-3.873334773553863</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-68789548.76221795</v>
+        <v>-68.78954876221795</v>
       </c>
       <c r="E7">
-        <v>-11254228.15073583</v>
+        <v>-11.25422815073583</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2373651916.637218</v>
+        <v>-2373.651916637218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-988351776.6537579</v>
+        <v>-988.3517766537573</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-19.73191956828727</v>
+        <v>-1.973191956828727E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10.97890578471092</v>
+        <v>-1.097890578471092E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3536180.004641718</v>
+        <v>-3.536180004641718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-62485276.83308805</v>
+        <v>-62.48527683308806</v>
       </c>
       <c r="E7">
-        <v>-10274602.86315336</v>
+        <v>-10.27460286315336</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2248859477.449635</v>
+        <v>-2248.859477449635</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-949135755.2948352</v>
+        <v>-949.1357552948352</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2763144.66869669</v>
+        <v>-2.76314466869669</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-48284530.18219824</v>
+        <v>-48.28453018219823</v>
       </c>
       <c r="E7">
-        <v>-8028498.008311774</v>
+        <v>-8.028498008311773</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2018137808.559913</v>
+        <v>-2018.137808559913</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-889014243.7749161</v>
+        <v>-889.0142437749163</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1565259.871487506</v>
+        <v>-1.565259871487505</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26214585.74518684</v>
+        <v>-26.21458574518684</v>
       </c>
       <c r="E7">
-        <v>-4547965.187307835</v>
+        <v>-4.547965187307829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1688977861.376426</v>
+        <v>-1688.977861376427</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-811895497.0102601</v>
+        <v>-811.8954970102604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-763542.3511260042</v>
+        <v>-0.7635423511260006</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10825849.64173273</v>
+        <v>-10.82584964173277</v>
       </c>
       <c r="E7">
-        <v>-2218522.36501545</v>
+        <v>-2.218522365015439</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1396461524.374034</v>
+        <v>-1396.461524374035</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-722616110.7955151</v>
+        <v>-722.6161107955154</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-688867.4619037737</v>
+        <v>-0.6888674619037718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8391798.867579907</v>
+        <v>-8.391798867579938</v>
       </c>
       <c r="E7">
-        <v>-2001549.578109449</v>
+        <v>-2.001549578109443</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1204036989.99772</v>
+        <v>-1204.03698999772</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-626469998.0472809</v>
+        <v>-626.4699980472807</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-656887.8973093012</v>
+        <v>-0.6568878973093008</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7518547.123408487</v>
+        <v>-7.518547123408482</v>
       </c>
       <c r="E7">
-        <v>-1908630.856349396</v>
+        <v>-1.908630856349395</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1021307761.732108</v>
+        <v>-1021.307761732108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-528786312.1323309</v>
+        <v>-528.786312132331</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-501123.5144889186</v>
+        <v>-0.5011235144889193</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5573897.653600915</v>
+        <v>-5.57389765360089</v>
       </c>
       <c r="E7">
-        <v>-1456047.228931434</v>
+        <v>-1.456047228931435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-833959833.3228251</v>
+        <v>-833.9598333228246</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-434564298.7196801</v>
+        <v>-434.56429871968</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-239992.8153784915</v>
+        <v>-0.2399928153784925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2532487.387135083</v>
+        <v>-2.532487387135064</v>
       </c>
       <c r="E7">
-        <v>-697314.8608915113</v>
+        <v>-0.6973148608915145</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-650037851.7401423</v>
+        <v>-650.0378517401424</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-348135136.4545062</v>
+        <v>-348.1351364545062</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-44739.8761257465</v>
+        <v>-0.04473987612574556</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-477731.4502975749</v>
+        <v>-0.4777314502975996</v>
       </c>
       <c r="E7">
-        <v>-129994.6435801693</v>
+        <v>-0.1299946435801665</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-494935322.5977437</v>
+        <v>-494.9353225977437</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-272835111.973386</v>
+        <v>-272.835111973386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-6963.158393172329</v>
+        <v>-0.006963158393170933</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-448153.3458573899</v>
+        <v>-0.4481533458574359</v>
       </c>
       <c r="E7">
-        <v>-20231.91327058235</v>
+        <v>-0.0202319132705783</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-382186596.1686379</v>
+        <v>-382.1865961686381</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-210730846.8357415</v>
+        <v>-210.7308468357415</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78.36794123094553</v>
+        <v>-7.836794123094554E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-43.60418358379694</v>
+        <v>-4.360418358379694E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-13341.75860420096</v>
+        <v>-0.01334175860419954</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1109687.456180614</v>
+        <v>-1.109687456180681</v>
       </c>
       <c r="E7">
-        <v>-38765.35441473179</v>
+        <v>-0.03876535441472766</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300476030.4473771</v>
+        <v>-300.4760304473776</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-162486595.6997058</v>
+        <v>-162.4865956997058</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-39028.77025874602</v>
+        <v>-0.03902877025874415</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2346314.979351913</v>
+        <v>-2.346314979351944</v>
       </c>
       <c r="E7">
-        <v>-113400.6510187526</v>
+        <v>-0.1134006510187472</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-247190150.62225</v>
+        <v>-247.1901506222501</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127455538.6224677</v>
+        <v>-127.4555386224676</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-105592.1295358044</v>
+        <v>-0.1055921295358005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4189785.774185508</v>
+        <v>-4.189785774185461</v>
       </c>
       <c r="E7">
-        <v>-306804.8558135997</v>
+        <v>-0.3068048558135882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-220144360.5219504</v>
+        <v>-220.14436052195</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104002223.7716206</v>
+        <v>-104.0022237716206</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-243609.6316404891</v>
+        <v>-0.2436096316404833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6501125.908896817</v>
+        <v>-6.501125908896796</v>
       </c>
       <c r="E7">
-        <v>-707823.7576875573</v>
+        <v>-0.7078237576875402</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-215175743.0794767</v>
+        <v>-215.1757430794763</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89964364.9556729</v>
+        <v>-89.96436495567286</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-443489.0544502382</v>
+        <v>-0.4434890544502346</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8945525.046667706</v>
+        <v>-8.945525046667742</v>
       </c>
       <c r="E7">
-        <v>-1288586.526322285</v>
+        <v>-1.288586526322274</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225578855.9076574</v>
+        <v>-225.5788559076576</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83103887.79208565</v>
+        <v>-83.10388779208564</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-623365.0683580656</v>
+        <v>-0.6233650683580648</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11228280.022279</v>
+        <v>-11.22828002227902</v>
       </c>
       <c r="E7">
-        <v>-1811228.078812266</v>
+        <v>-1.811228078812264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-243615908.3831742</v>
+        <v>-243.6159083831743</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81418841.70809038</v>
+        <v>-81.41884170809038</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-740829.890331668</v>
+        <v>-0.7408298903316692</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13246393.65563534</v>
+        <v>-13.24639365563535</v>
       </c>
       <c r="E7">
-        <v>-2152529.820970626</v>
+        <v>-2.152529820970629</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-264564935.7956515</v>
+        <v>-264.5649357956516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83272833.02434416</v>
+        <v>-83.27283302434412</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-767045.0069743013</v>
+        <v>-0.767045006974305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13728858.52478276</v>
+        <v>-13.72885852478275</v>
       </c>
       <c r="E7">
-        <v>-2228699.561244238</v>
+        <v>-2.228699561244248</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276124978.4510498</v>
+        <v>-276.1249784510499</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-87386670.0185629</v>
+        <v>-87.3866700185629</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-585721.1309781654</v>
+        <v>-0.58572113097817</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10398266.41387591</v>
+        <v>-10.3982664138759</v>
       </c>
       <c r="E7">
-        <v>-1701851.150523494</v>
+        <v>-1.701851150523507</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257035128.6832363</v>
+        <v>-257.0351286832362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92773034.36476125</v>
+        <v>-92.77303436476119</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-267481.7642815253</v>
+        <v>-0.2674817642815298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4668629.62147782</v>
+        <v>-4.668629621477793</v>
       </c>
       <c r="E7">
-        <v>-777185.8043201405</v>
+        <v>-0.7771858043201534</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-217990988.2201145</v>
+        <v>-217.9909882201144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-98672418.42307685</v>
+        <v>-98.67241842307686</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.541728448181275E-12</v>
+        <v>-4.541728448181273E-18</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.176523427991146E-09</v>
+        <v>-3.176523427991149E-15</v>
       </c>
       <c r="E7">
-        <v>-1.319628979749191E-11</v>
+        <v>-1.31962897974919E-17</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-256.31001015633</v>
+        <v>-0.00025631001015633</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142.6117435351181</v>
+        <v>-0.0001426117435351181</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-75453.44699518716</v>
+        <v>-0.07545344699518843</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1276168.710455621</v>
+        <v>-1.276168710455588</v>
       </c>
       <c r="E7">
-        <v>-219234.9375636742</v>
+        <v>-0.2192349375636779</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-198990971.17512</v>
+        <v>-198.9909711751198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104504983.9650887</v>
+        <v>-104.5049839650887</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-72303.95612141074</v>
+        <v>-0.07230395612141081</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1237165.849827908</v>
+        <v>-1.237165849827898</v>
       </c>
       <c r="E7">
-        <v>-210083.885324619</v>
+        <v>-0.2100838853246192</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-208197030.9268277</v>
+        <v>-208.1970309268274</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109828554.60692</v>
+        <v>-109.8285546069199</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-166509.968791445</v>
+        <v>-0.1665099687914451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2859881.281309452</v>
+        <v>-2.85988128130944</v>
       </c>
       <c r="E7">
-        <v>-483805.6320216923</v>
+        <v>-0.4838056320216924</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-230386618.5883667</v>
+        <v>-230.3866185883664</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114296569.5190669</v>
+        <v>-114.2965695190668</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-306583.3010469035</v>
+        <v>-0.3065833010469043</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5266978.401978531</v>
+        <v>-5.266978401978514</v>
       </c>
       <c r="E7">
-        <v>-890797.8831950552</v>
+        <v>-0.8907978831950574</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257378018.4352192</v>
+        <v>-257.3780184352189</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117623673.5478761</v>
+        <v>-117.623673547876</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-354460.9358765964</v>
+        <v>-0.354460935876599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6088203.576372924</v>
+        <v>-6.088203576372923</v>
       </c>
       <c r="E7">
-        <v>-1029909.490425585</v>
+        <v>-1.029909490425593</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268050890.6475492</v>
+        <v>-268.0508906475491</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119572296.5872651</v>
+        <v>-119.572296587265</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-243280.0344074599</v>
+        <v>-0.2432800344074614</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4158769.164779619</v>
+        <v>-4.15876916477965</v>
       </c>
       <c r="E7">
-        <v>-706866.0913160137</v>
+        <v>-0.7068660913160181</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251945308.2868596</v>
+        <v>-251.9453082868598</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119967369.9325239</v>
+        <v>-119.9673699325238</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-111692.0960873175</v>
+        <v>-0.1116920960873168</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1879337.924543617</v>
+        <v>-1.879337924543644</v>
       </c>
       <c r="E7">
-        <v>-324528.7085906207</v>
+        <v>-0.3245287085906189</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-229858141.1852919</v>
+        <v>-229.8581411852919</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118734705.1382665</v>
+        <v>-118.7347051382664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-81598.78391785956</v>
+        <v>-0.08159878391785952</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1347041.420322577</v>
+        <v>-1.347041420322567</v>
       </c>
       <c r="E7">
-        <v>-237090.6169289358</v>
+        <v>-0.2370906169289357</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-220224710.7547889</v>
+        <v>-220.2247107547886</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115948052.1417896</v>
+        <v>-115.9480521417895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-176180.7579231928</v>
+        <v>-0.1761807579231932</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2928365.349094389</v>
+        <v>-2.92836534909436</v>
       </c>
       <c r="E7">
-        <v>-511904.7439366909</v>
+        <v>-0.5119047439366921</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226749624.2935023</v>
+        <v>-226.749624293502</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111863701.7706883</v>
+        <v>-111.8637017706882</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-334969.777634799</v>
+        <v>-0.3349697776348002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5693984.106687174</v>
+        <v>-5.693984106687143</v>
       </c>
       <c r="E7">
-        <v>-973276.6521609967</v>
+        <v>-0.9732766521610002</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-241956960.9791194</v>
+        <v>-241.9569609791192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106921749.5266547</v>
+        <v>-106.9217495266547</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.863812104825415E-10</v>
+        <v>-2.863812104825414E-16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.463293288435245E-07</v>
+        <v>-1.463293288435245E-13</v>
       </c>
       <c r="E7">
-        <v>-8.32099384452962E-10</v>
+        <v>-8.320993844529614E-16</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-731.9491318457182</v>
+        <v>-0.0007319491318457181</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-407.2589348486258</v>
+        <v>-0.0004072589348486259</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-425856.3591934135</v>
+        <v>-0.4258563591934155</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7641696.562805056</v>
+        <v>-7.641696562805076</v>
       </c>
       <c r="E7">
-        <v>-1237353.574115928</v>
+        <v>-1.237353574115935</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-249032820.8800202</v>
+        <v>-249.0328208800204</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101701530.3128643</v>
+        <v>-101.7015303128643</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-383424.1561061427</v>
+        <v>-0.3834241561061428</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7564039.660398627</v>
+        <v>-7.564039660398685</v>
       </c>
       <c r="E7">
-        <v>-1114064.025858175</v>
+        <v>-1.114064025858176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-238689439.5854553</v>
+        <v>-238.6894395854559</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-96834485.92555059</v>
+        <v>-96.83448592555067</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-326074.6490254955</v>
+        <v>-0.3260746490254927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6995656.522089268</v>
+        <v>-6.995656522089283</v>
       </c>
       <c r="E7">
-        <v>-947431.2727523409</v>
+        <v>-0.947431272752333</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226060440.3759976</v>
+        <v>-226.0604403759978</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92895335.0662322</v>
+        <v>-92.89533506623225</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-342590.1423874317</v>
+        <v>-0.3425901423874307</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7272684.59106111</v>
+        <v>-7.272684591061107</v>
       </c>
       <c r="E7">
-        <v>-995418.1216005892</v>
+        <v>-0.9954181216005865</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-223829349.2377589</v>
+        <v>-223.8293492377591</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90303135.32412478</v>
+        <v>-90.30313532412495</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-419797.5823930147</v>
+        <v>-0.4197975823930161</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8341879.111571836</v>
+        <v>-8.34187911157186</v>
       </c>
       <c r="E7">
-        <v>-1219749.400861493</v>
+        <v>-1.219749400861497</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231652495.4580762</v>
+        <v>-231.6524954580768</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89261025.78148243</v>
+        <v>-89.2610257814826</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-482042.9776436312</v>
+        <v>-0.4820429776436321</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9221679.440272756</v>
+        <v>-9.221679440272798</v>
       </c>
       <c r="E7">
-        <v>-1400607.478057961</v>
+        <v>-1.400607478057963</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-240474972.797033</v>
+        <v>-240.4749727970338</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89747916.35853608</v>
+        <v>-89.74791635853632</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-510992.1654782915</v>
+        <v>-0.5109921654782894</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9631993.848260131</v>
+        <v>-9.631993848260109</v>
       </c>
       <c r="E7">
-        <v>-1484721.241447135</v>
+        <v>-1.484721241447129</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-247428603.4329267</v>
+        <v>-247.4286034329269</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91555740.49025127</v>
+        <v>-91.55574049025147</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-533118.0332848931</v>
+        <v>-0.533118033284892</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9779139.316485962</v>
+        <v>-9.779139316485875</v>
       </c>
       <c r="E7">
-        <v>-1549009.401104464</v>
+        <v>-1.549009401104462</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254068185.8832822</v>
+        <v>-254.0681858832819</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94352594.43336098</v>
+        <v>-94.35259443336116</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-563102.8471023726</v>
+        <v>-0.563102847102375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9845416.99771365</v>
+        <v>-9.84541699771359</v>
       </c>
       <c r="E7">
-        <v>-1636132.243690474</v>
+        <v>-1.636132243690481</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-261385860.49515</v>
+        <v>-261.3858604951499</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97750197.65600803</v>
+        <v>-97.75019765600823</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-583650.6306986229</v>
+        <v>-0.5836506306986253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9802425.861044884</v>
+        <v>-9.802425861044906</v>
       </c>
       <c r="E7">
-        <v>-1695835.176203062</v>
+        <v>-1.695835176203069</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268058198.9841475</v>
+        <v>-268.0581989841479</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101360922.3073241</v>
+        <v>-101.3609223073243</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001871334539450526</v>
+        <v>-0.00187133462874372</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001041216755895649</v>
+        <v>-0.00104121680557868</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5593408812944473</v>
+        <v>-2.845055225113536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.367671597021852</v>
+        <v>-52.6831930682626</v>
       </c>
       <c r="E7">
-        <v>-1.625201605371594</v>
+        <v>-8.26649450067876</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270.5374672867407</v>
+        <v>-1655.824238675775</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.8386162666857</v>
+        <v>-668.4033351715193</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.483507126737963</v>
+        <v>-3.483500626403349</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.336361363219549</v>
+        <v>-64.73897078717471</v>
       </c>
       <c r="E7">
-        <v>-1.404861659252627</v>
+        <v>-10.121539475609</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266.6606634959666</v>
+        <v>-1795.841514563969</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107.9036800354381</v>
+        <v>-688.6061477883042</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.004367773167791255</v>
+        <v>-0.004367773652606019</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002430243245068812</v>
+        <v>-0.002430243514821362</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.009499738803183971</v>
+        <v>-0.009499740979609334</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.005285682316676846</v>
+        <v>-0.005285683527647169</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01958730293089003</v>
+        <v>-0.01958731136572917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01089839846794105</v>
+        <v>-0.01089840316111365</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.03877835273497324</v>
+        <v>-0.03877838179021337</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02157604300662768</v>
+        <v>-0.02157605917306009</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.07432063424553773</v>
+        <v>-0.07432072504532622</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.04134963471983166</v>
+        <v>-0.04134968524113648</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1382747486919602</v>
+        <v>-0.1382750100752294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.07692021301010353</v>
+        <v>-0.07692035844462529</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2494895330526544</v>
+        <v>-0.2494902345107987</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1387270190655669</v>
+        <v>-0.1387274093592152</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.4358207931180466</v>
+        <v>-0.4358225652615917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2420495502695575</v>
+        <v>-0.2420505362961299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.7370063630146667</v>
+        <v>-0.7370106121088247</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.4080922488653865</v>
+        <v>-0.4080946130755319</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.209789701378668</v>
+        <v>-1.209799436162994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.6649965638578118</v>
+        <v>-0.6650019803242425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.940392277899686</v>
+        <v>-1.940413706256407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.048699757864778</v>
+        <v>-1.048711680673846</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.079219530361461</v>
+        <v>-3.079265050179445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.603534752685058</v>
+        <v>-1.603560080063434</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.08708721209705916</v>
+        <v>-0.08708721209705918</v>
       </c>
       <c r="E7">
         <v>-0.002116616025254862</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-4.936943733027383</v>
+        <v>-4.937037371154434</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.382430639496836</v>
+        <v>-2.382482740062681</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-8.226928605278481</v>
+        <v>-8.227115623994026</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.446505182919225</v>
+        <v>-3.446609240755606</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.007175459138144648</v>
+        <v>-0.007175459138144649</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.7682579605577846</v>
+        <v>-0.7682579605577849</v>
       </c>
       <c r="E7">
         <v>-0.02084876700519963</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-14.53871249341675</v>
+        <v>-14.53907587797609</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.863769776622355</v>
+        <v>-4.863971965001788</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0197788180862548</v>
+        <v>-0.01977881808625481</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.913622041627135</v>
+        <v>-1.913622041627136</v>
       </c>
       <c r="E7">
-        <v>-0.05746865280389282</v>
+        <v>-0.05746865280389284</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-26.53993715175188</v>
+        <v>-26.54062512720424</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-6.706670036031231</v>
+        <v>-6.707052827864918</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04672341399330377</v>
+        <v>-0.04672341399330379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.758669228356218</v>
+        <v>-3.758669228356224</v>
       </c>
       <c r="E7">
-        <v>-0.1357579429106404</v>
+        <v>-0.1357579429106405</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-44.90648027323292</v>
+        <v>-44.907751002982</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9.048367162567496</v>
+        <v>-9.049074200833289</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08362743118378857</v>
+        <v>-0.08362743118378876</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.190378736548134</v>
+        <v>-5.190378736548179</v>
       </c>
       <c r="E7">
-        <v>-0.2429849845741016</v>
+        <v>-0.2429849845741022</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61.50875698198563</v>
+        <v>-61.51104931506147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11.95764326165435</v>
+        <v>-11.95891872341447</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09469220023563193</v>
+        <v>-0.09469220023563349</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.56412723184787</v>
+        <v>-5.56412723184819</v>
       </c>
       <c r="E7">
-        <v>-0.2751343965471833</v>
+        <v>-0.2751343965471879</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-70.86521938590415</v>
+        <v>-70.86926208638032</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-15.49232585019782</v>
+        <v>-15.4945752222097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06319155475301121</v>
+        <v>-0.06319155475302196</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.920848461557361</v>
+        <v>-5.920848461559475</v>
       </c>
       <c r="E7">
-        <v>-0.1836072056683054</v>
+        <v>-0.1836072056683367</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-80.26119994487422</v>
+        <v>-80.26817638123754</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19.69190899184442</v>
+        <v>-19.69579070427023</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04490905952650289</v>
+        <v>-0.04490905952657235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.505244954594595</v>
+        <v>-6.505244954607607</v>
       </c>
       <c r="E7">
-        <v>-0.1304862170440563</v>
+        <v>-0.1304862170442581</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-92.8639948741809</v>
+        <v>-92.87578575406465</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24.57039458664583</v>
+        <v>-24.57695507144054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0723051951990001</v>
+        <v>-0.07230519519941991</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.121089579884262</v>
+        <v>-7.121089579959408</v>
       </c>
       <c r="E7">
-        <v>-0.2100874855457986</v>
+        <v>-0.2100874855470183</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-107.9921556447516</v>
+        <v>-108.0116890620684</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-30.11040664153235</v>
+        <v>-30.12127509969132</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1128017177262162</v>
+        <v>-0.112801717728599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.787562969540311</v>
+        <v>-7.787562969948945</v>
       </c>
       <c r="E7">
-        <v>-0.3277527870179294</v>
+        <v>-0.3277527870248529</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-124.9043805012466</v>
+        <v>-124.9361262112988</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36.26035276837938</v>
+        <v>-36.27801618551694</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1594554160762184</v>
+        <v>-0.1594554160889733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.296872659789903</v>
+        <v>-8.296872661890665</v>
       </c>
       <c r="E7">
-        <v>-0.4633081665558535</v>
+        <v>-0.4633081665929137</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-141.7625336413952</v>
+        <v>-141.8131868193128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-42.93733581492009</v>
+        <v>-42.96551940313679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.220686439526671</v>
+        <v>-0.2206864395912892</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.864561897939923</v>
+        <v>-8.864561908185003</v>
       </c>
       <c r="E7">
-        <v>-0.641218919976782</v>
+        <v>-0.6412189201645342</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-160.1648475700569</v>
+        <v>-160.2442558437669</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-50.03930127374516</v>
+        <v>-50.08348425918967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2643427164307792</v>
+        <v>-0.2643427167416062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.946910480109684</v>
+        <v>-8.94691052764539</v>
       </c>
       <c r="E7">
-        <v>-0.7680650949692263</v>
+        <v>-0.7680650958723545</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-175.1801873507007</v>
+        <v>-175.3025828839504</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-57.47023657685966</v>
+        <v>-57.53833766153084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2967010497980424</v>
+        <v>-0.296701051221536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.602746110845739</v>
+        <v>-8.602746321192459</v>
       </c>
       <c r="E7">
-        <v>-0.8620843542336705</v>
+        <v>-0.8620843583697246</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-187.3038604742464</v>
+        <v>-187.489465343273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-65.18156211162271</v>
+        <v>-65.28483240321897</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4280013227983947</v>
+        <v>-0.4280013290189117</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.611441656820359</v>
+        <v>-8.611442546137599</v>
       </c>
       <c r="E7">
-        <v>-1.243585906510821</v>
+        <v>-1.243585924584941</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205.0133147137186</v>
+        <v>-205.2903918455721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-73.23048896078265</v>
+        <v>-73.38465189423293</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6876771119873124</v>
+        <v>-0.6876771379674609</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.466143159499765</v>
+        <v>-8.466146756201331</v>
       </c>
       <c r="E7">
-        <v>-1.998090938378504</v>
+        <v>-1.998091013865529</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225.7327527039056</v>
+        <v>-226.1401762571373</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81.85151463439026</v>
+        <v>-82.07819145816113</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9640897634865155</v>
+        <v>-0.9640898672963522</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.407219510571959</v>
+        <v>-8.407233433277092</v>
       </c>
       <c r="E7">
-        <v>-2.801226021088546</v>
+        <v>-2.801226322714832</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-249.3907470935375</v>
+        <v>-249.9811692333235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.53025142349452</v>
+        <v>-91.85870616641053</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.241684276925757</v>
+        <v>-1.241684673915745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.323469251214803</v>
+        <v>-8.32352083341773</v>
       </c>
       <c r="E7">
-        <v>-3.607795081157497</v>
+        <v>-3.607796234637939</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.2260240023039</v>
+        <v>-277.0697355657644</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.0620261311429</v>
+        <v>-103.531254624585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.285157235208055</v>
+        <v>-1.285158687890835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.956969707192363</v>
+        <v>-7.957152514173596</v>
       </c>
       <c r="E7">
-        <v>-3.734108611874467</v>
+        <v>-3.734112832739535</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300.677145057663</v>
+        <v>-301.8668160114469</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117.5735821305231</v>
+        <v>-118.2347549090235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.127919792102672</v>
+        <v>-1.127924874795555</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.4804812998839</v>
+        <v>-7.481100410946206</v>
       </c>
       <c r="E7">
-        <v>-3.277244911213061</v>
+        <v>-3.277259679310497</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-327.3734143224323</v>
+        <v>-329.0301953895682</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-136.4868561718746</v>
+        <v>-137.4061046981263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.105100287015466</v>
+        <v>-1.105117270755984</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.799728948629785</v>
+        <v>-6.801729778415726</v>
       </c>
       <c r="E7">
-        <v>-3.210941342956643</v>
+        <v>-3.210990690328305</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-366.634799553324</v>
+        <v>-368.9171151744125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-161.4120526280593</v>
+        <v>-162.6735628909913</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.016038368320261</v>
+        <v>-1.016092478130397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.694301314288953</v>
+        <v>-6.700459915400058</v>
       </c>
       <c r="E7">
-        <v>-2.95216609859054</v>
+        <v>-2.952323318191755</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-422.2259874812124</v>
+        <v>-425.3445174523235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-193.9726563265594</v>
+        <v>-195.6820051680917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8814473824329028</v>
+        <v>-0.8816113878758518</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.701602103535219</v>
+        <v>-7.719608565794207</v>
       </c>
       <c r="E7">
-        <v>-2.561103164255274</v>
+        <v>-2.561579692823245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-501.1244624594843</v>
+        <v>-505.3717169605516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-235.5831366823519</v>
+        <v>-237.8707772942463</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7503108361638912</v>
+        <v>-0.7507822861813258</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.35787982251229</v>
+        <v>-10.40769679268786</v>
       </c>
       <c r="E7">
-        <v>-2.180077330731241</v>
+        <v>-2.181447159668854</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-610.184555098487</v>
+        <v>-615.996928044344</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-287.2132073184088</v>
+        <v>-290.2379857227429</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8331133808982129</v>
+        <v>-0.8343928854289414</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-15.76717436675045</v>
+        <v>-15.89683848751327</v>
       </c>
       <c r="E7">
-        <v>-2.420665553640399</v>
+        <v>-2.424383237948772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-763.1442313013011</v>
+        <v>-771.2281184402284</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-349.1739705812249</v>
+        <v>-353.1265403774248</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.289708920083952</v>
+        <v>-1.292964972409484</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-23.91223141820888</v>
+        <v>-24.22695467238583</v>
       </c>
       <c r="E7">
-        <v>-3.747333830725508</v>
+        <v>-3.756794504249645</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-962.8239090567134</v>
+        <v>-974.3832790579642</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-420.9509742736368</v>
+        <v>-426.0569792371322</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.537794547116952E-06</v>
+        <v>-3.537794547131748E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.968440672183039E-06</v>
+        <v>-1.968440672191272E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.83675283877969</v>
+        <v>-1.844440088624581</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-33.43132684671343</v>
+        <v>-34.13427703543705</v>
       </c>
       <c r="E7">
-        <v>-5.336805804981338</v>
+        <v>-5.359141613441998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1189.789151616757</v>
+        <v>-1206.844139490889</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-501.0948470318083</v>
+        <v>-507.6177673184822</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.562448962265861</v>
+        <v>-2.579013578411651</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-46.59593757925284</v>
+        <v>-48.01321820787505</v>
       </c>
       <c r="E7">
-        <v>-7.445363474094048</v>
+        <v>-7.493493052411655</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1458.430597713752</v>
+        <v>-1484.021859889479</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-587.1728720715395</v>
+        <v>-595.4164863133423</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.640125521142491</v>
+        <v>-3.671916663584216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-65.96473823260314</v>
+        <v>-68.48034441880384</v>
       </c>
       <c r="E7">
-        <v>-10.57662337682882</v>
+        <v>-10.66899462566963</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1785.574043419965</v>
+        <v>-1823.288318240765</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-675.7905326425671</v>
+        <v>-686.1010400580423</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.383041793998372</v>
+        <v>-4.435554419153192</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79.08302861822713</v>
+        <v>-82.91537519930777</v>
       </c>
       <c r="E7">
-        <v>-12.73521531902314</v>
+        <v>-12.8877941945496</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2055.797446903161</v>
+        <v>-2108.068527216471</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-762.7053759289139</v>
+        <v>-775.4733519460062</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.459265394493651</v>
+        <v>-4.530888034862853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80.24111150390289</v>
+        <v>-85.21010404409451</v>
       </c>
       <c r="E7">
-        <v>-12.95668798807862</v>
+        <v>-13.1647922658128</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2210.542544444529</v>
+        <v>-2276.798693409951</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-843.0623657958896</v>
+        <v>-858.7248897701538</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.400365304844571</v>
+        <v>-4.478678088248732</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79.19283574849653</v>
+        <v>-84.87325147009727</v>
       </c>
       <c r="E7">
-        <v>-12.78554991565187</v>
+        <v>-13.01309284263231</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2324.92345109172</v>
+        <v>-2402.625554866974</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-911.7673307267607</v>
+        <v>-930.8108177561649</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.297818066907726</v>
+        <v>-4.370066910054146</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-77.31228897211857</v>
+        <v>-83.48008939440854</v>
       </c>
       <c r="E7">
-        <v>-12.48759219202599</v>
+        <v>-12.69751594298814</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2402.51645002501</v>
+        <v>-2490.686281558398</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-963.9811615673721</v>
+        <v>-986.9456376129448</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.143778047656565</v>
+        <v>-4.2151395979908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-74.23162446634238</v>
+        <v>-80.93037467250673</v>
       </c>
       <c r="E7">
-        <v>-12.04001881602119</v>
+        <v>-12.24736447953966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2433.194684075896</v>
+        <v>-2533.355377933818</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-995.6731114328816</v>
+        <v>-1023.158868756043</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.006538720663942</v>
+        <v>-4.098606148835367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-71.42936500402304</v>
+        <v>-78.7154801145557</v>
       </c>
       <c r="E7">
-        <v>-11.64126095295858</v>
+        <v>-11.90876890217259</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2424.56811060667</v>
+        <v>-2538.860951304416</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1004.135471139009</v>
+        <v>-1036.813196628376</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.873334773553863</v>
+        <v>-4.004764267314749</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-68.78954876221795</v>
+        <v>-76.64532929873749</v>
       </c>
       <c r="E7">
-        <v>-11.25422815073583</v>
+        <v>-11.63610516240544</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2373.651916637218</v>
+        <v>-2503.757610723166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-988.3517766537573</v>
+        <v>-1026.977316542597</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.973191956828727E-05</v>
+        <v>-1.973191957008688E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.097890578471092E-05</v>
+        <v>-1.097890578571223E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.536180004641718</v>
+        <v>-3.716654835757848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-62.48527683308806</v>
+        <v>-70.82322163371012</v>
       </c>
       <c r="E7">
-        <v>-10.27460286315336</v>
+        <v>-10.79898431830521</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2248.859477449635</v>
+        <v>-2395.920390864314</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-949.1357552948352</v>
+        <v>-994.5706158778133</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.76314466869669</v>
+        <v>-2.999759051499037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-48.28453018219823</v>
+        <v>-56.94969640334909</v>
       </c>
       <c r="E7">
-        <v>-8.028498008311773</v>
+        <v>-8.715996611836786</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2018.137808559913</v>
+        <v>-2182.978521118816</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-889.0142437749163</v>
+        <v>-942.2526751029658</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.565259871487505</v>
+        <v>-1.867290502871027</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26.21458574518684</v>
+        <v>-34.98139362674761</v>
       </c>
       <c r="E7">
-        <v>-4.547965187307829</v>
+        <v>-5.425534990287237</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1688.977861376427</v>
+        <v>-1872.25848008336</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-811.8954970102604</v>
+        <v>-874.0985143423421</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7635423511260006</v>
+        <v>-1.157181090773069</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.82584964173277</v>
+        <v>-19.49461066982765</v>
       </c>
       <c r="E7">
-        <v>-2.218522365015439</v>
+        <v>-3.362265533099901</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1396.461524374035</v>
+        <v>-1599.813912207496</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-722.6161107955154</v>
+        <v>-795.1520387672879</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6888674619037718</v>
+        <v>-1.231216299928937</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.391798867579938</v>
+        <v>-16.93380530115041</v>
       </c>
       <c r="E7">
-        <v>-2.001549578109443</v>
+        <v>-3.577379687630649</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1204.03698999772</v>
+        <v>-1431.547659324326</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-626.4699980472807</v>
+        <v>-710.9600620501917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6568878973093008</v>
+        <v>-1.407413170452769</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.518547123408482</v>
+        <v>-15.9548731576988</v>
       </c>
       <c r="E7">
-        <v>-1.908630856349395</v>
+        <v>-4.089331247784965</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1021.307761732108</v>
+        <v>-1278.02538233112</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-528.786312132331</v>
+        <v>-627.1524759791373</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5011235144889193</v>
+        <v>-1.466032807445403</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.57389765360089</v>
+        <v>-13.86818454021299</v>
       </c>
       <c r="E7">
-        <v>-1.456047228931435</v>
+        <v>-4.259654446629747</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-833.9598333228246</v>
+        <v>-1123.845629958439</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-434.56429871968</v>
+        <v>-549.0750349321586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2399928153784925</v>
+        <v>-1.350174373326477</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.532487387135064</v>
+        <v>-10.6130376892542</v>
       </c>
       <c r="E7">
-        <v>-0.6973148608915145</v>
+        <v>-3.923020169710524</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-650.0378517401424</v>
+        <v>-975.6610569447863</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-348.1351364545062</v>
+        <v>-481.4432547336821</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04473987612574556</v>
+        <v>-1.180574841133906</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4777314502975996</v>
+        <v>-8.228665631198051</v>
       </c>
       <c r="E7">
-        <v>-0.1299946435801665</v>
+        <v>-3.430237608650875</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-494.9353225977437</v>
+        <v>-858.0499740867463</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-272.835111973386</v>
+        <v>-428.0003659646751</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.006963158393170933</v>
+        <v>-1.085518351061943</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4481533458574359</v>
+        <v>-7.860660212636547</v>
       </c>
       <c r="E7">
-        <v>-0.0202319132705783</v>
+        <v>-3.154044744098536</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-382.1865961686381</v>
+        <v>-786.9486883742539</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-210.7308468357415</v>
+        <v>-391.2190475848877</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-7.836794123094554E-05</v>
+        <v>-7.836794130483332E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.360418358379694E-05</v>
+        <v>-4.360418362490835E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01334175860419954</v>
+        <v>-1.012537830007758</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.109687456180681</v>
+        <v>-8.490600683736394</v>
       </c>
       <c r="E7">
-        <v>-0.03876535441472766</v>
+        <v>-2.941995055000846</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300.4760304473776</v>
+        <v>-755.4963517361341</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-162.4865956997058</v>
+        <v>-372.136671798737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03902877025874415</v>
+        <v>-0.9497031344590503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.346314979351944</v>
+        <v>-10.43301029018543</v>
       </c>
       <c r="E7">
-        <v>-0.1134006510187472</v>
+        <v>-2.759424727149129</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-247.1901506222501</v>
+        <v>-765.0834309332174</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127.4555386224676</v>
+        <v>-370.4066789365705</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1055921295358005</v>
+        <v>-0.965663423110133</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.189785774185461</v>
+        <v>-14.27013222529455</v>
       </c>
       <c r="E7">
-        <v>-0.3068048558135882</v>
+        <v>-2.805798392306421</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-220.14436052195</v>
+        <v>-819.0212752240374</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.0022237716206</v>
+        <v>-384.5751380770296</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2436096316404833</v>
+        <v>-1.157124918364</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.501125908896796</v>
+        <v>-20.50045522553004</v>
       </c>
       <c r="E7">
-        <v>-0.7078237576875402</v>
+        <v>-3.362102320482249</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-215.1757430794763</v>
+        <v>-919.4399601363433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89.96436495567286</v>
+        <v>-412.4938993619249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4434890544502346</v>
+        <v>-1.576340928613683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.945525046667742</v>
+        <v>-29.3156758246546</v>
       </c>
       <c r="E7">
-        <v>-1.288586526322274</v>
+        <v>-4.580161925348865</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225.5788559076576</v>
+        <v>-1064.625871046327</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.10388779208564</v>
+        <v>-451.7246601375311</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6233650683580648</v>
+        <v>-2.181799446943687</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.22828002227902</v>
+        <v>-40.62219901390073</v>
       </c>
       <c r="E7">
-        <v>-1.811228078812264</v>
+        <v>-6.339361348960883</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-243.6159083831743</v>
+        <v>-1248.473642221632</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81.41884170809038</v>
+        <v>-499.810934516081</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7408298903316692</v>
+        <v>-2.90799288361697</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.24639365563535</v>
+        <v>-54.19600144609375</v>
       </c>
       <c r="E7">
-        <v>-2.152529820970629</v>
+        <v>-8.449363994146493</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-264.5649357956516</v>
+        <v>-1463.493352813478</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.27283302434412</v>
+        <v>-554.3804067540367</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.767045006974305</v>
+        <v>-3.662275735843498</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.72885852478275</v>
+        <v>-68.44823285615729</v>
       </c>
       <c r="E7">
-        <v>-2.228699561244248</v>
+        <v>-10.64098227798422</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.1249784510499</v>
+        <v>-1691.668405024194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-87.3866700185629</v>
+        <v>-613.1279750223902</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.58572113097817</v>
+        <v>-4.23118979293964</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.3982664138759</v>
+        <v>-79.35430180883259</v>
       </c>
       <c r="E7">
-        <v>-1.701851150523507</v>
+        <v>-12.29399937334005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257.0351286832362</v>
+        <v>-1894.256740003159</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.77303436476119</v>
+        <v>-673.7649480761668</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2674817642815298</v>
+        <v>-4.464750134177978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.668629621477793</v>
+        <v>-84.14794695090335</v>
       </c>
       <c r="E7">
-        <v>-0.7771858043201534</v>
+        <v>-12.97262425885394</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-217.9909882201144</v>
+        <v>-2043.251495058014</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-98.67241842307686</v>
+        <v>-733.995562059997</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.00025631001015633</v>
+        <v>-0.0002563100114230798</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0001426117435351181</v>
+        <v>-0.0001426117442399419</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07545344699518843</v>
+        <v>-4.470811114901945</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.276168710455588</v>
+        <v>-84.7640550701018</v>
       </c>
       <c r="E7">
-        <v>-0.2192349375636779</v>
+        <v>-12.99023483575281</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-198.9909711751198</v>
+        <v>-2151.323119529057</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.5049839650887</v>
+        <v>-791.5360428221587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07230395612141081</v>
+        <v>-4.425358776608958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.237165849827898</v>
+        <v>-84.3138281328508</v>
       </c>
       <c r="E7">
-        <v>-0.2100838853246192</v>
+        <v>-12.85817008663112</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-208.1970309268274</v>
+        <v>-2241.513163039973</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-109.8285546069199</v>
+        <v>-844.1642149916303</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1665099687914451</v>
+        <v>-4.417010521889079</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.85988128130944</v>
+        <v>-84.27729286665782</v>
       </c>
       <c r="E7">
-        <v>-0.4838056320216924</v>
+        <v>-12.83391368516553</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-230.3866185883664</v>
+        <v>-2323.04188792474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114.2965695190668</v>
+        <v>-889.7883603445893</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3065833010469043</v>
+        <v>-4.451292646533633</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.266978401978514</v>
+        <v>-84.68516320777302</v>
       </c>
       <c r="E7">
-        <v>-0.8907978831950574</v>
+        <v>-12.93352264612497</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-257.3780184352189</v>
+        <v>-2392.901114103327</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117.623673547876</v>
+        <v>-926.5351607293593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.354460935876599</v>
+        <v>-4.344570154239035</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.088203576372923</v>
+        <v>-82.24486725680741</v>
       </c>
       <c r="E7">
-        <v>-1.029909490425593</v>
+        <v>-12.62343344720025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268.0508906475491</v>
+        <v>-2419.766683220206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.572296587265</v>
+        <v>-952.8600653745166</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2432800344074614</v>
+        <v>-3.936368177247226</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.15876916477965</v>
+        <v>-74.042216924597</v>
       </c>
       <c r="E7">
-        <v>-0.7068660913160181</v>
+        <v>-11.43737583813071</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251.9453082868598</v>
+        <v>-2376.46705346713</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.9673699325238</v>
+        <v>-967.675906683695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1116920960873168</v>
+        <v>-3.280963463557662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.879337924543644</v>
+        <v>-60.92059926270469</v>
       </c>
       <c r="E7">
-        <v>-0.3245287085906189</v>
+        <v>-9.533054469037594</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-229.8581411852919</v>
+        <v>-2269.593459722903</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.7347051382664</v>
+        <v>-970.4837837062501</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08159878391785952</v>
+        <v>-2.533246181283174</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.347041420322567</v>
+        <v>-45.48129822260763</v>
       </c>
       <c r="E7">
-        <v>-0.2370906169289357</v>
+        <v>-7.360512879185729</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-220.2247107547886</v>
+        <v>-2122.292193995959</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.9480521417895</v>
+        <v>-961.4808381137677</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1761807579231932</v>
+        <v>-2.001672629234819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.92836534909436</v>
+        <v>-33.15867971253021</v>
       </c>
       <c r="E7">
-        <v>-0.5119047439366921</v>
+        <v>-5.815991069582314</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226.749624293502</v>
+        <v>-1983.5170325815</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-111.8637017706882</v>
+        <v>-941.6158332949839</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3349697776348002</v>
+        <v>-1.849112474394467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.693984106687143</v>
+        <v>-27.08736830297699</v>
       </c>
       <c r="E7">
-        <v>-0.9732766521610002</v>
+        <v>-5.372717536654623</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-241.9569609791192</v>
+        <v>-1883.173894456757</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.9217495266547</v>
+        <v>-912.5672990207682</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0007319491318457181</v>
+        <v>-0.0007319491445770001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0004072589348486259</v>
+        <v>-0.0004072589419323536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4258563591934155</v>
+        <v>-1.891202998250413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.641696562805076</v>
+        <v>-24.59870609428322</v>
       </c>
       <c r="E7">
-        <v>-1.237353574115935</v>
+        <v>-5.495014313502593</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-249.0328208800204</v>
+        <v>-1801.391382889424</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.7015303128643</v>
+        <v>-876.6317937064556</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3834241561061428</v>
+        <v>-1.894570784131823</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.564039660398685</v>
+        <v>-22.31713871949303</v>
       </c>
       <c r="E7">
-        <v>-1.114064025858176</v>
+        <v>-5.50479963619946</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-238.6894395854559</v>
+        <v>-1712.699513102604</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-96.83448592555067</v>
+        <v>-836.5302359552906</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3260746490254927</v>
+        <v>-1.800249942701262</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.995656522089283</v>
+        <v>-19.71252505482057</v>
       </c>
       <c r="E7">
-        <v>-0.947431272752333</v>
+        <v>-5.230744247009603</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226.0604403759978</v>
+        <v>-1617.000863958352</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.89533506623225</v>
+        <v>-795.162116761355</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3425901423874307</v>
+        <v>-1.668632395429058</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.272684591061107</v>
+        <v>-17.84076633021284</v>
       </c>
       <c r="E7">
-        <v>-0.9954181216005865</v>
+        <v>-4.848320833532599</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-223.8293492377591</v>
+        <v>-1528.56229065323</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90.30313532412495</v>
+        <v>-755.3513554720411</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4197975823930161</v>
+        <v>-1.569055155546315</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.34187911157186</v>
+        <v>-17.53958360092324</v>
       </c>
       <c r="E7">
-        <v>-1.219749400861497</v>
+        <v>-4.558992633989262</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231.6524954580768</v>
+        <v>-1459.739397527439</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89.2610257814826</v>
+        <v>-719.6265062287468</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4820429776436321</v>
+        <v>-1.512439665061677</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.221679440272798</v>
+        <v>-18.69770078413878</v>
       </c>
       <c r="E7">
-        <v>-1.400607478057963</v>
+        <v>-4.394492614231012</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-240.4749727970338</v>
+        <v>-1413.711427510813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-89.74791635853632</v>
+        <v>-690.0625457819076</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5109921654782894</v>
+        <v>-1.506385767367065</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.631993848260109</v>
+        <v>-21.29628091347606</v>
       </c>
       <c r="E7">
-        <v>-1.484721241447129</v>
+        <v>-4.37690261753835</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-247.4286034329269</v>
+        <v>-1393.275758283957</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.55574049025147</v>
+        <v>-668.1902557165531</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.533118033284892</v>
+        <v>-1.593744142972461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.779139316485875</v>
+        <v>-25.69037216273747</v>
       </c>
       <c r="E7">
-        <v>-1.549009401104462</v>
+        <v>-4.630728105759382</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254.0681858832819</v>
+        <v>-1403.782585883761</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94.35259443336116</v>
+        <v>-654.9630686998258</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.563102847102375</v>
+        <v>-1.839413321716289</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.84541699771359</v>
+        <v>-32.40515822288008</v>
       </c>
       <c r="E7">
-        <v>-1.636132243690481</v>
+        <v>-5.344536012595734</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-261.3858604951499</v>
+        <v>-1451.339305586692</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97.75019765600823</v>
+        <v>-650.7657120827158</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5836506306986253</v>
+        <v>-2.270334032566451</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.802425861044906</v>
+        <v>-41.57914019862311</v>
       </c>
       <c r="E7">
-        <v>-1.695835176203069</v>
+        <v>-6.59660439250892</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268.0581989841479</v>
+        <v>-1537.349198875376</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.3609223073243</v>
+        <v>-655.4518711595547</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.209799436162994</v>
+        <v>-1.209799436162995</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-70.86926208638032</v>
+        <v>-70.86926208638033</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-124.9361262112988</v>
+        <v>-124.9361262112989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-205.2903918455721</v>
+        <v>-205.290391845572</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-329.0301953895682</v>
+        <v>-329.0301953895683</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-505.3717169605516</v>
+        <v>-505.3717169605515</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-615.996928044344</v>
+        <v>-615.9969280443439</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2276.798693409951</v>
+        <v>-2276.79869340995</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2503.757610723166</v>
+        <v>-2503.757610723165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2395.920390864314</v>
+        <v>-2395.920390864313</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-975.6610569447863</v>
+        <v>-975.6610569447864</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-786.9486883742539</v>
+        <v>-786.9486883742541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-919.4399601363433</v>
+        <v>-919.4399601363432</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1894.256740003159</v>
+        <v>-1894.25674000316</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2241.513163039973</v>
+        <v>-2241.513163039974</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2419.766683220206</v>
+        <v>-2419.766683220207</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Max_b1.xlsx
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-124.9361262112989</v>
+        <v>-124.9361262112988</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226.1401762571373</v>
+        <v>-226.1401762571374</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-329.0301953895683</v>
+        <v>-329.0301953895682</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-505.3717169605515</v>
+        <v>-505.3717169605516</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-974.3832790579642</v>
+        <v>-974.3832790579643</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2276.79869340995</v>
+        <v>-2276.798693409951</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2503.757610723165</v>
+        <v>-2503.757610723166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2395.920390864313</v>
+        <v>-2395.920390864314</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2241.513163039974</v>
+        <v>-2241.513163039973</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2419.766683220207</v>
+        <v>-2419.766683220206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
